--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0245bf8339beb498/Desktop/Programms/DSA Apna College Program Cheatsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashank\OneDrive\Desktop\Programms\DSA Apna College Program Cheatsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{83301590-83F5-44C7-B7E1-AD2742923992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9650F5B5-6F6E-4FF7-B0B6-5B86F650BB45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A2312-2C8B-4DFC-8D3B-9387BADA7975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="432" yWindow="1212" windowWidth="22452" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,16 +24,16 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{DA06FCC6-1FC0-40D5-A12B-8F80DA3B66F6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{C4A38210-5016-4933-A97E-CBE4FA1DF2DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{672E2E68-7871-4DB1-BECA-749F40F82542}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{927507D1-940B-452C-9A74-0191C507A367}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{672E2E68-7871-4DB1-BECA-749F40F82542}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{C4A38210-5016-4933-A97E-CBE4FA1DF2DB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{DA06FCC6-1FC0-40D5-A12B-8F80DA3B66F6}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="697">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -2146,7 +2146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2791,11 +2791,11 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="88.21875" customWidth="1"/>
@@ -2805,7 +2805,7 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -2894,7 +2894,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15">
+    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -2922,7 +2922,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
@@ -3078,7 +3078,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -3106,7 +3106,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3254,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>14</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
@@ -3587,7 +3587,9 @@
         <v>38</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="50"/>
+      <c r="E24" s="50" t="s">
+        <v>696</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -3610,7 +3612,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
@@ -3644,7 +3646,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3680,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
@@ -3712,7 +3714,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
@@ -3746,7 +3748,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>14</v>
       </c>
@@ -3780,7 +3782,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.6">
+    <row r="30" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3816,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.6">
+    <row r="31" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>14</v>
       </c>
@@ -3848,7 +3850,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.6">
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>14</v>
       </c>
@@ -3882,7 +3884,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.6">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.6">
+    <row r="34" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>14</v>
       </c>
@@ -3950,7 +3952,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.6">
+    <row r="35" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>14</v>
       </c>
@@ -3984,7 +3986,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.6">
+    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>14</v>
       </c>
@@ -4018,7 +4020,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.6">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4054,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15">
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
       <c r="C38" s="22"/>
@@ -4080,7 +4082,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15">
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
@@ -4108,7 +4110,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.6">
+    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -4142,7 +4144,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.6">
+    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -4176,7 +4178,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.6">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>61</v>
       </c>
@@ -4212,7 +4214,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.6">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>61</v>
       </c>
@@ -4246,7 +4248,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.6">
+    <row r="44" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>61</v>
       </c>
@@ -4280,7 +4282,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.6">
+    <row r="45" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>61</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.6">
+    <row r="46" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>61</v>
       </c>
@@ -4348,7 +4350,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.6">
+    <row r="47" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>61</v>
       </c>
@@ -4382,7 +4384,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.6">
+    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>61</v>
       </c>
@@ -4416,7 +4418,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.6">
+    <row r="49" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>61</v>
       </c>
@@ -4450,7 +4452,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.6">
+    <row r="50" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>61</v>
       </c>
@@ -4484,7 +4486,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.6">
+    <row r="51" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>61</v>
       </c>
@@ -4518,7 +4520,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.6">
+    <row r="52" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>61</v>
       </c>
@@ -4552,7 +4554,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.6">
+    <row r="53" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>61</v>
       </c>
@@ -4586,7 +4588,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.6">
+    <row r="54" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -4620,7 +4622,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.6">
+    <row r="55" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -4654,7 +4656,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6">
+    <row r="56" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>61</v>
       </c>
@@ -4688,7 +4690,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.6">
+    <row r="57" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>61</v>
       </c>
@@ -4722,7 +4724,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6">
+    <row r="58" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>61</v>
       </c>
@@ -4756,7 +4758,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6">
+    <row r="59" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>61</v>
       </c>
@@ -4790,7 +4792,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6">
+    <row r="60" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>61</v>
       </c>
@@ -4824,7 +4826,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6">
+    <row r="61" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>61</v>
       </c>
@@ -4860,7 +4862,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15">
+    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -4888,7 +4890,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15">
+    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="22"/>
@@ -4916,7 +4918,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6">
+    <row r="64" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>105</v>
       </c>
@@ -4950,7 +4952,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6">
+    <row r="65" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>105</v>
       </c>
@@ -4984,7 +4986,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6">
+    <row r="66" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>105</v>
       </c>
@@ -5018,7 +5020,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6">
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>105</v>
       </c>
@@ -5052,7 +5054,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6">
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>105</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6">
+    <row r="69" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>105</v>
       </c>
@@ -5122,7 +5124,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.6">
+    <row r="70" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
@@ -5156,7 +5158,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.6">
+    <row r="71" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>105</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.6">
+    <row r="72" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>105</v>
       </c>
@@ -5224,7 +5226,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.6">
+    <row r="73" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>105</v>
       </c>
@@ -5258,7 +5260,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.6">
+    <row r="74" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
@@ -5286,7 +5288,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.6">
+    <row r="75" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -5314,7 +5316,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.6">
+    <row r="76" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>126</v>
       </c>
@@ -5348,7 +5350,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.6">
+    <row r="77" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>126</v>
       </c>
@@ -5382,7 +5384,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.6">
+    <row r="78" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>126</v>
       </c>
@@ -5416,7 +5418,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6">
+    <row r="79" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>126</v>
       </c>
@@ -5450,7 +5452,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.6">
+    <row r="80" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>126</v>
       </c>
@@ -5484,7 +5486,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.6">
+    <row r="81" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>126</v>
       </c>
@@ -5518,7 +5520,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.6">
+    <row r="82" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>126</v>
       </c>
@@ -5552,7 +5554,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.6">
+    <row r="83" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>126</v>
       </c>
@@ -5586,7 +5588,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.6">
+    <row r="84" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>126</v>
       </c>
@@ -5619,7 +5621,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.6">
+    <row r="85" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>126</v>
       </c>
@@ -5652,7 +5654,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6">
+    <row r="86" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>126</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.6">
+    <row r="87" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>126</v>
       </c>
@@ -5720,7 +5722,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.6">
+    <row r="88" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>126</v>
       </c>
@@ -5754,7 +5756,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.6">
+    <row r="89" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>126</v>
       </c>
@@ -5788,7 +5790,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.6">
+    <row r="90" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>126</v>
       </c>
@@ -5822,7 +5824,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.6">
+    <row r="91" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>126</v>
       </c>
@@ -5856,7 +5858,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.6">
+    <row r="92" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
         <v>126</v>
       </c>
@@ -5890,7 +5892,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.6">
+    <row r="93" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
         <v>126</v>
       </c>
@@ -5924,7 +5926,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.6">
+    <row r="94" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A94" s="28" t="s">
         <v>126</v>
       </c>
@@ -5958,7 +5960,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.6">
+    <row r="95" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>126</v>
       </c>
@@ -5992,7 +5994,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.6">
+    <row r="96" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A96" s="28" t="s">
         <v>126</v>
       </c>
@@ -6026,7 +6028,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.6">
+    <row r="97" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A97" s="28" t="s">
         <v>126</v>
       </c>
@@ -6060,7 +6062,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.6">
+    <row r="98" spans="1:26" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>126</v>
       </c>
@@ -6094,7 +6096,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15">
+    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22"/>
@@ -6122,7 +6124,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15">
+    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="21"/>
       <c r="C100" s="22"/>
@@ -6150,7 +6152,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.6">
+    <row r="101" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>169</v>
       </c>
@@ -6184,7 +6186,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.6">
+    <row r="102" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>169</v>
       </c>
@@ -6218,7 +6220,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.6">
+    <row r="103" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>169</v>
       </c>
@@ -6252,7 +6254,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.6">
+    <row r="104" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>169</v>
       </c>
@@ -6286,7 +6288,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.6">
+    <row r="105" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>169</v>
       </c>
@@ -6320,7 +6322,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.6">
+    <row r="106" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>169</v>
       </c>
@@ -6354,7 +6356,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.6">
+    <row r="107" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>169</v>
       </c>
@@ -6388,7 +6390,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.6">
+    <row r="108" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>169</v>
       </c>
@@ -6422,7 +6424,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.6">
+    <row r="109" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>169</v>
       </c>
@@ -6455,7 +6457,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.6">
+    <row r="110" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>169</v>
       </c>
@@ -6488,7 +6490,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.6">
+    <row r="111" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>169</v>
       </c>
@@ -6521,7 +6523,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.6">
+    <row r="112" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>169</v>
       </c>
@@ -6552,7 +6554,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.6">
+    <row r="113" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>169</v>
       </c>
@@ -6585,7 +6587,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.6">
+    <row r="114" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>169</v>
       </c>
@@ -6618,7 +6620,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.6">
+    <row r="115" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>169</v>
       </c>
@@ -6652,7 +6654,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.6">
+    <row r="116" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>169</v>
       </c>
@@ -6686,7 +6688,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.6">
+    <row r="117" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>169</v>
       </c>
@@ -6720,7 +6722,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.6">
+    <row r="118" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>169</v>
       </c>
@@ -6754,7 +6756,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.6">
+    <row r="119" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>169</v>
       </c>
@@ -6786,7 +6788,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.6">
+    <row r="120" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>169</v>
       </c>
@@ -6818,7 +6820,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.6">
+    <row r="121" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>169</v>
       </c>
@@ -6850,7 +6852,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15">
+    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="21"/>
       <c r="C122" s="22"/>
@@ -6876,7 +6878,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15">
+    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="21"/>
       <c r="C123" s="22"/>
@@ -6902,7 +6904,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.6">
+    <row r="124" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>203</v>
       </c>
@@ -6935,7 +6937,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.6">
+    <row r="125" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>203</v>
       </c>
@@ -6968,7 +6970,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.6">
+    <row r="126" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>203</v>
       </c>
@@ -7001,7 +7003,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.6">
+    <row r="127" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>203</v>
       </c>
@@ -7034,7 +7036,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.6">
+    <row r="128" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>203</v>
       </c>
@@ -7067,7 +7069,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.6">
+    <row r="129" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>203</v>
       </c>
@@ -7100,7 +7102,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.6">
+    <row r="130" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>203</v>
       </c>
@@ -7133,7 +7135,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.6">
+    <row r="131" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>203</v>
       </c>
@@ -7166,7 +7168,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.6">
+    <row r="132" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>203</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.6">
+    <row r="133" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>203</v>
       </c>
@@ -7232,7 +7234,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.6">
+    <row r="134" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>203</v>
       </c>
@@ -7265,7 +7267,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.6">
+    <row r="135" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>203</v>
       </c>
@@ -7299,7 +7301,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.6">
+    <row r="136" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>203</v>
       </c>
@@ -7333,7 +7335,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.6">
+    <row r="137" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>203</v>
       </c>
@@ -7367,7 +7369,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.6">
+    <row r="138" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>203</v>
       </c>
@@ -7401,7 +7403,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.6">
+    <row r="139" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>203</v>
       </c>
@@ -7435,7 +7437,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.6">
+    <row r="140" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>203</v>
       </c>
@@ -7469,7 +7471,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.6">
+    <row r="141" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>203</v>
       </c>
@@ -7503,7 +7505,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.6">
+    <row r="142" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>203</v>
       </c>
@@ -7537,7 +7539,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.6">
+    <row r="143" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>203</v>
       </c>
@@ -7571,7 +7573,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.6">
+    <row r="144" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>203</v>
       </c>
@@ -7607,7 +7609,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.6">
+    <row r="145" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>203</v>
       </c>
@@ -7643,7 +7645,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.6">
+    <row r="146" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>203</v>
       </c>
@@ -7677,7 +7679,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.6">
+    <row r="147" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>203</v>
       </c>
@@ -7711,7 +7713,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.6">
+    <row r="148" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>203</v>
       </c>
@@ -7745,7 +7747,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.6">
+    <row r="149" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>203</v>
       </c>
@@ -7779,7 +7781,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15">
+    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="21"/>
       <c r="C150" s="22"/>
@@ -7807,7 +7809,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15">
+    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="21"/>
       <c r="C151" s="22"/>
@@ -7835,7 +7837,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.6">
+    <row r="152" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>252</v>
       </c>
@@ -7869,7 +7871,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.6">
+    <row r="153" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>252</v>
       </c>
@@ -7903,7 +7905,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.6">
+    <row r="154" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>252</v>
       </c>
@@ -7937,7 +7939,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.6">
+    <row r="155" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>252</v>
       </c>
@@ -7971,7 +7973,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.6">
+    <row r="156" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>252</v>
       </c>
@@ -8005,7 +8007,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.6">
+    <row r="157" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>252</v>
       </c>
@@ -8039,7 +8041,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.6">
+    <row r="158" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>252</v>
       </c>
@@ -8073,7 +8075,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.6">
+    <row r="159" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>252</v>
       </c>
@@ -8107,7 +8109,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.6">
+    <row r="160" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>252</v>
       </c>
@@ -8141,7 +8143,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.6">
+    <row r="161" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>252</v>
       </c>
@@ -8173,7 +8175,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.6">
+    <row r="162" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>252</v>
       </c>
@@ -8205,7 +8207,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.6">
+    <row r="163" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>252</v>
       </c>
@@ -8237,7 +8239,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.6">
+    <row r="164" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>252</v>
       </c>
@@ -8269,7 +8271,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.6">
+    <row r="165" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>252</v>
       </c>
@@ -8301,7 +8303,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.6">
+    <row r="166" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>252</v>
       </c>
@@ -8333,7 +8335,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.6">
+    <row r="167" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>252</v>
       </c>
@@ -8365,7 +8367,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.6">
+    <row r="168" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>252</v>
       </c>
@@ -8397,7 +8399,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.6">
+    <row r="169" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>252</v>
       </c>
@@ -8429,7 +8431,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.6">
+    <row r="170" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>252</v>
       </c>
@@ -8461,7 +8463,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.6">
+    <row r="171" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>252</v>
       </c>
@@ -8493,7 +8495,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.6">
+    <row r="172" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>252</v>
       </c>
@@ -8525,7 +8527,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.6">
+    <row r="173" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>252</v>
       </c>
@@ -8557,7 +8559,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.6">
+    <row r="174" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>252</v>
       </c>
@@ -8589,7 +8591,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.6">
+    <row r="175" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>252</v>
       </c>
@@ -8621,7 +8623,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.6">
+    <row r="176" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>252</v>
       </c>
@@ -8653,7 +8655,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.6">
+    <row r="177" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>252</v>
       </c>
@@ -8687,7 +8689,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.6">
+    <row r="178" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>252</v>
       </c>
@@ -8721,7 +8723,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15">
+    <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="C179" s="22"/>
       <c r="D179" s="38"/>
       <c r="E179" s="50"/>
@@ -8747,7 +8749,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15">
+    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="21"/>
       <c r="C180" s="22"/>
@@ -8775,7 +8777,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.6">
+    <row r="181" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>300</v>
       </c>
@@ -8809,7 +8811,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.6">
+    <row r="182" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>300</v>
       </c>
@@ -8843,7 +8845,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.6">
+    <row r="183" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>300</v>
       </c>
@@ -8877,7 +8879,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.6">
+    <row r="184" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>300</v>
       </c>
@@ -8911,7 +8913,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.6">
+    <row r="185" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>300</v>
       </c>
@@ -8945,7 +8947,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.6">
+    <row r="186" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>300</v>
       </c>
@@ -8975,7 +8977,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.6">
+    <row r="187" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>300</v>
       </c>
@@ -9007,7 +9009,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.6">
+    <row r="188" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>300</v>
       </c>
@@ -9039,7 +9041,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.6">
+    <row r="189" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>300</v>
       </c>
@@ -9069,7 +9071,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.6">
+    <row r="190" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>300</v>
       </c>
@@ -9101,7 +9103,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.6">
+    <row r="191" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>300</v>
       </c>
@@ -9133,7 +9135,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.6">
+    <row r="192" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>300</v>
       </c>
@@ -9165,7 +9167,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.6">
+    <row r="193" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>300</v>
       </c>
@@ -9197,7 +9199,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.6">
+    <row r="194" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>300</v>
       </c>
@@ -9229,7 +9231,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.6">
+    <row r="195" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>300</v>
       </c>
@@ -9261,7 +9263,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.6">
+    <row r="196" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>300</v>
       </c>
@@ -9293,7 +9295,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.6">
+    <row r="197" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>300</v>
       </c>
@@ -9323,7 +9325,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.6">
+    <row r="198" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>300</v>
       </c>
@@ -9355,7 +9357,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.6">
+    <row r="199" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>300</v>
       </c>
@@ -9387,7 +9389,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.6">
+    <row r="200" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>300</v>
       </c>
@@ -9417,7 +9419,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.6">
+    <row r="201" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>300</v>
       </c>
@@ -9447,7 +9449,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15.6">
+    <row r="202" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>300</v>
       </c>
@@ -9479,7 +9481,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15">
+    <row r="203" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="21"/>
       <c r="C203" s="22"/>
@@ -9507,7 +9509,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15">
+    <row r="204" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="21"/>
       <c r="C204" s="22"/>
@@ -9535,7 +9537,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="15.6">
+    <row r="205" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>333</v>
       </c>
@@ -9569,7 +9571,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="15.6">
+    <row r="206" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>333</v>
       </c>
@@ -9603,7 +9605,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="15.6">
+    <row r="207" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>333</v>
       </c>
@@ -9637,7 +9639,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="15.6">
+    <row r="208" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>333</v>
       </c>
@@ -9671,7 +9673,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15.6">
+    <row r="209" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>333</v>
       </c>
@@ -9705,7 +9707,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="15.6">
+    <row r="210" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>333</v>
       </c>
@@ -9739,7 +9741,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="15.6">
+    <row r="211" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>333</v>
       </c>
@@ -9772,7 +9774,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="15.6">
+    <row r="212" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>333</v>
       </c>
@@ -9805,7 +9807,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15.6">
+    <row r="213" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>333</v>
       </c>
@@ -9838,7 +9840,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15.6">
+    <row r="214" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>333</v>
       </c>
@@ -9871,7 +9873,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15.6">
+    <row r="215" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>333</v>
       </c>
@@ -9904,7 +9906,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15.6">
+    <row r="216" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>333</v>
       </c>
@@ -9937,7 +9939,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="15.6">
+    <row r="217" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>333</v>
       </c>
@@ -9970,7 +9972,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="15.6">
+    <row r="218" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>333</v>
       </c>
@@ -10003,7 +10005,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15.6">
+    <row r="219" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>333</v>
       </c>
@@ -10037,7 +10039,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="15.6">
+    <row r="220" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>333</v>
       </c>
@@ -10071,7 +10073,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="15.6">
+    <row r="221" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>333</v>
       </c>
@@ -10105,7 +10107,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="15.6">
+    <row r="222" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>333</v>
       </c>
@@ -10139,7 +10141,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15.6">
+    <row r="223" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>333</v>
       </c>
@@ -10173,7 +10175,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15.6">
+    <row r="224" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>333</v>
       </c>
@@ -10207,7 +10209,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="15.6">
+    <row r="225" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>333</v>
       </c>
@@ -10241,7 +10243,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="15.6">
+    <row r="226" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>333</v>
       </c>
@@ -10275,7 +10277,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="15.6">
+    <row r="227" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>333</v>
       </c>
@@ -10309,7 +10311,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15.6">
+    <row r="228" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>333</v>
       </c>
@@ -10343,7 +10345,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15.6">
+    <row r="229" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>333</v>
       </c>
@@ -10377,7 +10379,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="15.6">
+    <row r="230" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>333</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.6">
+    <row r="231" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>333</v>
       </c>
@@ -10445,7 +10447,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="15.6">
+    <row r="232" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>333</v>
       </c>
@@ -10479,7 +10481,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="15.6">
+    <row r="233" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>333</v>
       </c>
@@ -10513,7 +10515,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="15.6">
+    <row r="234" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>333</v>
       </c>
@@ -10547,7 +10549,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="15.6">
+    <row r="235" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>333</v>
       </c>
@@ -10581,7 +10583,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15.6">
+    <row r="236" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="10" t="s">
         <v>333</v>
       </c>
@@ -10615,7 +10617,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="15.6">
+    <row r="237" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="10" t="s">
         <v>333</v>
       </c>
@@ -10649,7 +10651,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15">
+    <row r="238" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="21"/>
       <c r="C238" s="22"/>
@@ -10677,7 +10679,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15">
+    <row r="239" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="21"/>
       <c r="C239" s="22"/>
@@ -10705,7 +10707,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="15.6">
+    <row r="240" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>393</v>
       </c>
@@ -10739,7 +10741,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="15.6">
+    <row r="241" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>393</v>
       </c>
@@ -10773,7 +10775,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="15.6">
+    <row r="242" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>393</v>
       </c>
@@ -10807,7 +10809,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="15.6">
+    <row r="243" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>393</v>
       </c>
@@ -10840,7 +10842,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="15.6">
+    <row r="244" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>393</v>
       </c>
@@ -10873,7 +10875,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.6">
+    <row r="245" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>393</v>
       </c>
@@ -10906,7 +10908,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.6">
+    <row r="246" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>393</v>
       </c>
@@ -10939,7 +10941,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.6">
+    <row r="247" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>393</v>
       </c>
@@ -10972,7 +10974,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.6">
+    <row r="248" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>393</v>
       </c>
@@ -11005,7 +11007,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.6">
+    <row r="249" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>393</v>
       </c>
@@ -11038,7 +11040,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.6">
+    <row r="250" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>393</v>
       </c>
@@ -11071,7 +11073,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.6">
+    <row r="251" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>393</v>
       </c>
@@ -11104,7 +11106,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.6">
+    <row r="252" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>393</v>
       </c>
@@ -11137,7 +11139,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.6">
+    <row r="253" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>393</v>
       </c>
@@ -11170,7 +11172,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.6">
+    <row r="254" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>393</v>
       </c>
@@ -11203,7 +11205,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.6">
+    <row r="255" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>393</v>
       </c>
@@ -11236,7 +11238,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.6">
+    <row r="256" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
         <v>393</v>
       </c>
@@ -11269,7 +11271,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.6">
+    <row r="257" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>393</v>
       </c>
@@ -11302,7 +11304,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.6">
+    <row r="258" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>393</v>
       </c>
@@ -11335,7 +11337,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.6">
+    <row r="259" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="10" t="s">
         <v>393</v>
       </c>
@@ -11369,7 +11371,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.6">
+    <row r="260" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="10" t="s">
         <v>393</v>
       </c>
@@ -11405,7 +11407,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15">
+    <row r="261" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="21"/>
       <c r="C261" s="22"/>
@@ -11433,7 +11435,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15">
+    <row r="262" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="21"/>
       <c r="C262" s="22"/>
@@ -11461,7 +11463,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.6">
+    <row r="263" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>427</v>
       </c>
@@ -11493,7 +11495,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.6">
+    <row r="264" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>427</v>
       </c>
@@ -11527,7 +11529,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.6">
+    <row r="265" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>427</v>
       </c>
@@ -11561,7 +11563,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.6">
+    <row r="266" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>427</v>
       </c>
@@ -11595,7 +11597,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.6">
+    <row r="267" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>427</v>
       </c>
@@ -11629,7 +11631,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.6">
+    <row r="268" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>427</v>
       </c>
@@ -11663,7 +11665,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.6">
+    <row r="269" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>427</v>
       </c>
@@ -11697,7 +11699,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.6">
+    <row r="270" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>427</v>
       </c>
@@ -11731,7 +11733,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.6">
+    <row r="271" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>427</v>
       </c>
@@ -11765,7 +11767,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.6">
+    <row r="272" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>427</v>
       </c>
@@ -11799,7 +11801,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.6">
+    <row r="273" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>427</v>
       </c>
@@ -11833,7 +11835,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.6">
+    <row r="274" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>427</v>
       </c>
@@ -11867,7 +11869,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.6">
+    <row r="275" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>427</v>
       </c>
@@ -11901,7 +11903,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.6">
+    <row r="276" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>427</v>
       </c>
@@ -11935,7 +11937,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.6">
+    <row r="277" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>427</v>
       </c>
@@ -11969,7 +11971,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.6">
+    <row r="278" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>427</v>
       </c>
@@ -12003,7 +12005,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.6">
+    <row r="279" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="10" t="s">
         <v>427</v>
       </c>
@@ -12037,7 +12039,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.6">
+    <row r="280" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="10" t="s">
         <v>427</v>
       </c>
@@ -12071,7 +12073,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.6">
+    <row r="281" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="10" t="s">
         <v>427</v>
       </c>
@@ -12104,7 +12106,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.6">
+    <row r="282" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="10" t="s">
         <v>427</v>
       </c>
@@ -12137,7 +12139,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.6">
+    <row r="283" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
         <v>427</v>
       </c>
@@ -12170,7 +12172,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.6">
+    <row r="284" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="10" t="s">
         <v>427</v>
       </c>
@@ -12203,7 +12205,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.6">
+    <row r="285" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="10" t="s">
         <v>427</v>
       </c>
@@ -12236,7 +12238,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.6">
+    <row r="286" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="10" t="s">
         <v>427</v>
       </c>
@@ -12269,7 +12271,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.6">
+    <row r="287" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
         <v>427</v>
       </c>
@@ -12302,7 +12304,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.6">
+    <row r="288" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="10" t="s">
         <v>427</v>
       </c>
@@ -12335,7 +12337,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.6">
+    <row r="289" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="10" t="s">
         <v>427</v>
       </c>
@@ -12368,7 +12370,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.6">
+    <row r="290" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="10" t="s">
         <v>427</v>
       </c>
@@ -12401,7 +12403,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15">
+    <row r="291" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="21"/>
       <c r="C291" s="22"/>
@@ -12428,7 +12430,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15">
+    <row r="292" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="21"/>
       <c r="C292" s="22"/>
@@ -12456,7 +12458,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.6">
+    <row r="293" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>472</v>
       </c>
@@ -12490,7 +12492,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.6">
+    <row r="294" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>472</v>
       </c>
@@ -12524,7 +12526,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.6">
+    <row r="295" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>472</v>
       </c>
@@ -12558,7 +12560,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.6">
+    <row r="296" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>472</v>
       </c>
@@ -12592,7 +12594,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.6">
+    <row r="297" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>472</v>
       </c>
@@ -12626,7 +12628,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.6">
+    <row r="298" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
         <v>472</v>
       </c>
@@ -12660,7 +12662,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.6">
+    <row r="299" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>472</v>
       </c>
@@ -12694,7 +12696,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.6">
+    <row r="300" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>472</v>
       </c>
@@ -12728,7 +12730,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.6">
+    <row r="301" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>472</v>
       </c>
@@ -12762,7 +12764,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.6">
+    <row r="302" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
         <v>472</v>
       </c>
@@ -12796,7 +12798,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.6">
+    <row r="303" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>472</v>
       </c>
@@ -12830,7 +12832,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.6">
+    <row r="304" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
         <v>472</v>
       </c>
@@ -12864,7 +12866,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.6">
+    <row r="305" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>472</v>
       </c>
@@ -12898,7 +12900,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.6">
+    <row r="306" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
         <v>472</v>
       </c>
@@ -12932,7 +12934,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.6">
+    <row r="307" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>472</v>
       </c>
@@ -12966,7 +12968,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.6">
+    <row r="308" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
         <v>472</v>
       </c>
@@ -13000,7 +13002,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.6">
+    <row r="309" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>472</v>
       </c>
@@ -13034,7 +13036,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.6">
+    <row r="310" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
         <v>472</v>
       </c>
@@ -13068,7 +13070,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.6">
+    <row r="311" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>472</v>
       </c>
@@ -13102,7 +13104,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.6">
+    <row r="312" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>472</v>
       </c>
@@ -13136,7 +13138,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.6">
+    <row r="313" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>472</v>
       </c>
@@ -13170,7 +13172,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.6">
+    <row r="314" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
         <v>472</v>
       </c>
@@ -13204,7 +13206,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.6">
+    <row r="315" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>472</v>
       </c>
@@ -13238,7 +13240,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.6">
+    <row r="316" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>472</v>
       </c>
@@ -13272,7 +13274,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.6">
+    <row r="317" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>472</v>
       </c>
@@ -13306,7 +13308,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.6">
+    <row r="318" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>472</v>
       </c>
@@ -13340,7 +13342,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.6">
+    <row r="319" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>472</v>
       </c>
@@ -13374,7 +13376,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.6">
+    <row r="320" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
         <v>472</v>
       </c>
@@ -13408,7 +13410,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.6">
+    <row r="321" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>472</v>
       </c>
@@ -13442,7 +13444,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.6">
+    <row r="322" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="10" t="s">
         <v>472</v>
       </c>
@@ -13476,7 +13478,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.6">
+    <row r="323" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="10" t="s">
         <v>472</v>
       </c>
@@ -13510,7 +13512,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.6">
+    <row r="324" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
         <v>472</v>
       </c>
@@ -13546,7 +13548,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.6">
+    <row r="325" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="10" t="s">
         <v>472</v>
       </c>
@@ -13580,7 +13582,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.6">
+    <row r="326" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="10" t="s">
         <v>472</v>
       </c>
@@ -13616,7 +13618,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.6">
+    <row r="327" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="10" t="s">
         <v>472</v>
       </c>
@@ -13650,7 +13652,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.6">
+    <row r="328" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
         <v>472</v>
       </c>
@@ -13684,7 +13686,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.6">
+    <row r="329" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="10" t="s">
         <v>472</v>
       </c>
@@ -13718,7 +13720,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.6">
+    <row r="330" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="10" t="s">
         <v>472</v>
       </c>
@@ -13752,7 +13754,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.6">
+    <row r="331" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="10" t="s">
         <v>472</v>
       </c>
@@ -13786,7 +13788,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.6">
+    <row r="332" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
         <v>472</v>
       </c>
@@ -13820,7 +13822,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15">
+    <row r="333" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="21"/>
       <c r="C333" s="22"/>
@@ -13848,7 +13850,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15">
+    <row r="334" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="21"/>
       <c r="C334" s="22"/>
@@ -13876,7 +13878,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.6">
+    <row r="335" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
         <v>536</v>
       </c>
@@ -13910,7 +13912,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.6">
+    <row r="336" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>536</v>
       </c>
@@ -13944,7 +13946,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.6">
+    <row r="337" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>536</v>
       </c>
@@ -13978,7 +13980,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.6">
+    <row r="338" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>536</v>
       </c>
@@ -14012,7 +14014,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.6">
+    <row r="339" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>536</v>
       </c>
@@ -14046,7 +14048,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.6">
+    <row r="340" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
         <v>536</v>
       </c>
@@ -14080,7 +14082,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15">
+    <row r="341" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="21"/>
       <c r="C341" s="22"/>
@@ -14108,7 +14110,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15">
+    <row r="342" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="21"/>
       <c r="C342" s="22"/>
@@ -14136,7 +14138,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.6">
+    <row r="343" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>549</v>
       </c>
@@ -14170,7 +14172,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.6">
+    <row r="344" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>549</v>
       </c>
@@ -14204,7 +14206,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.6">
+    <row r="345" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>549</v>
       </c>
@@ -14238,7 +14240,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.6">
+    <row r="346" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>549</v>
       </c>
@@ -14272,7 +14274,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.6">
+    <row r="347" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>549</v>
       </c>
@@ -14306,7 +14308,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.6">
+    <row r="348" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>549</v>
       </c>
@@ -14340,7 +14342,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.6">
+    <row r="349" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>549</v>
       </c>
@@ -14374,7 +14376,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.6">
+    <row r="350" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>549</v>
       </c>
@@ -14408,7 +14410,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.6">
+    <row r="351" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>549</v>
       </c>
@@ -14442,7 +14444,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.6">
+    <row r="352" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>549</v>
       </c>
@@ -14476,7 +14478,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.6">
+    <row r="353" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>549</v>
       </c>
@@ -14510,7 +14512,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.6">
+    <row r="354" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
         <v>549</v>
       </c>
@@ -14544,7 +14546,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.6">
+    <row r="355" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
         <v>549</v>
       </c>
@@ -14578,7 +14580,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.6">
+    <row r="356" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>549</v>
       </c>
@@ -14612,7 +14614,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.6">
+    <row r="357" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>549</v>
       </c>
@@ -14646,7 +14648,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.6">
+    <row r="358" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>549</v>
       </c>
@@ -14680,7 +14682,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.6">
+    <row r="359" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>549</v>
       </c>
@@ -14714,7 +14716,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.6">
+    <row r="360" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>549</v>
       </c>
@@ -14748,7 +14750,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.6">
+    <row r="361" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>549</v>
       </c>
@@ -14782,7 +14784,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.6">
+    <row r="362" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>549</v>
       </c>
@@ -14816,7 +14818,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.6">
+    <row r="363" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>549</v>
       </c>
@@ -14850,7 +14852,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.6">
+    <row r="364" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>549</v>
       </c>
@@ -14884,7 +14886,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.6">
+    <row r="365" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>549</v>
       </c>
@@ -14918,7 +14920,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.6">
+    <row r="366" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>549</v>
       </c>
@@ -14952,7 +14954,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.6">
+    <row r="367" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>549</v>
       </c>
@@ -14986,7 +14988,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.6">
+    <row r="368" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>549</v>
       </c>
@@ -15020,7 +15022,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.6">
+    <row r="369" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>549</v>
       </c>
@@ -15054,7 +15056,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.6">
+    <row r="370" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>549</v>
       </c>
@@ -15088,7 +15090,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.6">
+    <row r="371" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>549</v>
       </c>
@@ -15122,7 +15124,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.6">
+    <row r="372" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>549</v>
       </c>
@@ -15156,7 +15158,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.6">
+    <row r="373" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>549</v>
       </c>
@@ -15190,7 +15192,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.6">
+    <row r="374" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>549</v>
       </c>
@@ -15224,7 +15226,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.6">
+    <row r="375" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>549</v>
       </c>
@@ -15258,7 +15260,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.6">
+    <row r="376" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>549</v>
       </c>
@@ -15292,7 +15294,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.6">
+    <row r="377" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>549</v>
       </c>
@@ -15326,7 +15328,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.6">
+    <row r="378" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>549</v>
       </c>
@@ -15360,7 +15362,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.6">
+    <row r="379" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>549</v>
       </c>
@@ -15394,7 +15396,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.6">
+    <row r="380" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A380" s="9" t="s">
         <v>549</v>
       </c>
@@ -15428,7 +15430,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.6">
+    <row r="381" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A381" s="9" t="s">
         <v>549</v>
       </c>
@@ -15462,7 +15464,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.6">
+    <row r="382" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A382" s="9" t="s">
         <v>549</v>
       </c>
@@ -15496,7 +15498,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.6">
+    <row r="383" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A383" s="9" t="s">
         <v>549</v>
       </c>
@@ -15530,7 +15532,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.6">
+    <row r="384" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="9" t="s">
         <v>549</v>
       </c>
@@ -15564,7 +15566,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.6">
+    <row r="385" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A385" s="9" t="s">
         <v>549</v>
       </c>
@@ -15598,7 +15600,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.6">
+    <row r="386" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="9" t="s">
         <v>549</v>
       </c>
@@ -15632,7 +15634,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.6">
+    <row r="387" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A387" s="9" t="s">
         <v>549</v>
       </c>
@@ -15666,7 +15668,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.6">
+    <row r="388" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
         <v>549</v>
       </c>
@@ -15700,7 +15702,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.6">
+    <row r="389" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A389" s="9" t="s">
         <v>549</v>
       </c>
@@ -15734,7 +15736,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.6">
+    <row r="390" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A390" s="9" t="s">
         <v>549</v>
       </c>
@@ -15768,7 +15770,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.6">
+    <row r="391" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="9" t="s">
         <v>549</v>
       </c>
@@ -15802,7 +15804,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.6">
+    <row r="392" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A392" s="10" t="s">
         <v>549</v>
       </c>
@@ -15836,7 +15838,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.6">
+    <row r="393" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A393" s="10" t="s">
         <v>549</v>
       </c>
@@ -15870,7 +15872,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.6">
+    <row r="394" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A394" s="10" t="s">
         <v>549</v>
       </c>
@@ -15904,7 +15906,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.6">
+    <row r="395" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="10" t="s">
         <v>549</v>
       </c>
@@ -15938,7 +15940,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.6">
+    <row r="396" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
         <v>549</v>
       </c>
@@ -15972,7 +15974,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15">
+    <row r="397" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="C397" s="22"/>
       <c r="D397" s="2"/>
       <c r="E397" s="53"/>
@@ -15998,7 +16000,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15">
+    <row r="398" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="21"/>
       <c r="C398" s="22"/>
@@ -16026,7 +16028,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.6">
+    <row r="399" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>629</v>
       </c>
@@ -16058,7 +16060,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.6">
+    <row r="400" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>629</v>
       </c>
@@ -16090,7 +16092,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.6">
+    <row r="401" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>629</v>
       </c>
@@ -16122,7 +16124,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.6">
+    <row r="402" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>629</v>
       </c>
@@ -16154,7 +16156,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.6">
+    <row r="403" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>629</v>
       </c>
@@ -16186,7 +16188,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.6">
+    <row r="404" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="9" t="s">
         <v>629</v>
       </c>
@@ -16218,7 +16220,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.6">
+    <row r="405" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="9" t="s">
         <v>629</v>
       </c>
@@ -16250,7 +16252,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.6">
+    <row r="406" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A406" s="9" t="s">
         <v>629</v>
       </c>
@@ -16282,7 +16284,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.6">
+    <row r="407" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="9" t="s">
         <v>629</v>
       </c>
@@ -16314,7 +16316,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.6">
+    <row r="408" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A408" s="9" t="s">
         <v>629</v>
       </c>
@@ -16346,7 +16348,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15">
+    <row r="409" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="21"/>
       <c r="C409" s="22"/>
@@ -16372,7 +16374,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15">
+    <row r="410" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="21"/>
       <c r="C410" s="22"/>
@@ -16398,7 +16400,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.6">
+    <row r="411" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="9" t="s">
         <v>644</v>
       </c>
@@ -16428,7 +16430,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.6">
+    <row r="412" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A412" s="9" t="s">
         <v>644</v>
       </c>
@@ -16460,7 +16462,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.6">
+    <row r="413" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A413" s="9" t="s">
         <v>644</v>
       </c>
@@ -16492,7 +16494,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.6">
+    <row r="414" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="10" t="s">
         <v>644</v>
       </c>
@@ -16524,7 +16526,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.6">
+    <row r="415" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A415" s="10" t="s">
         <v>644</v>
       </c>
@@ -16558,7 +16560,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.6">
+    <row r="416" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A416" s="10" t="s">
         <v>644</v>
       </c>
@@ -16592,7 +16594,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15">
+    <row r="417" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="20"/>
       <c r="B417" s="21"/>
       <c r="C417" s="22"/>
@@ -16620,7 +16622,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15">
+    <row r="418" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
       <c r="B418" s="21"/>
       <c r="C418" s="44"/>
@@ -16648,7 +16650,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15">
+    <row r="419" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
       <c r="B419" s="21"/>
       <c r="C419" s="44"/>
@@ -16676,7 +16678,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15">
+    <row r="420" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
       <c r="B420" s="21"/>
       <c r="C420" s="44"/>
@@ -16704,7 +16706,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15">
+    <row r="421" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
       <c r="B421" s="21"/>
       <c r="C421" s="44"/>
@@ -16732,7 +16734,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15">
+    <row r="422" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="20"/>
       <c r="B422" s="21"/>
       <c r="C422" s="44"/>
@@ -16760,7 +16762,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15">
+    <row r="423" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="20"/>
       <c r="B423" s="21"/>
       <c r="C423" s="44"/>
@@ -16788,7 +16790,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15">
+    <row r="424" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="20"/>
       <c r="B424" s="21"/>
       <c r="C424" s="44"/>
@@ -16816,7 +16818,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15">
+    <row r="425" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
       <c r="B425" s="21"/>
       <c r="C425" s="44"/>
@@ -16844,7 +16846,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15">
+    <row r="426" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
       <c r="B426" s="21"/>
       <c r="C426" s="44"/>
@@ -16872,7 +16874,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15">
+    <row r="427" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="20"/>
       <c r="B427" s="21"/>
       <c r="C427" s="44"/>
@@ -16900,7 +16902,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15">
+    <row r="428" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
       <c r="B428" s="21"/>
       <c r="C428" s="44"/>
@@ -16928,7 +16930,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15">
+    <row r="429" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
       <c r="B429" s="21"/>
       <c r="C429" s="44"/>
@@ -16956,7 +16958,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15">
+    <row r="430" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
       <c r="B430" s="21"/>
       <c r="C430" s="44"/>
@@ -16984,7 +16986,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15">
+    <row r="431" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
       <c r="B431" s="21"/>
       <c r="C431" s="44"/>
@@ -17012,7 +17014,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15">
+    <row r="432" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="20"/>
       <c r="B432" s="21"/>
       <c r="C432" s="44"/>
@@ -17040,7 +17042,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15">
+    <row r="433" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="20"/>
       <c r="B433" s="21"/>
       <c r="C433" s="44"/>
@@ -17068,7 +17070,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15">
+    <row r="434" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="20"/>
       <c r="B434" s="21"/>
       <c r="C434" s="44"/>
@@ -17096,7 +17098,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15">
+    <row r="435" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="20"/>
       <c r="B435" s="21"/>
       <c r="C435" s="44"/>
@@ -17124,7 +17126,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15">
+    <row r="436" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="20"/>
       <c r="B436" s="21"/>
       <c r="C436" s="44"/>
@@ -17152,7 +17154,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15">
+    <row r="437" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="20"/>
       <c r="B437" s="21"/>
       <c r="C437" s="44"/>
@@ -17180,7 +17182,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15">
+    <row r="438" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="20"/>
       <c r="B438" s="21"/>
       <c r="C438" s="44"/>
@@ -17208,7 +17210,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15">
+    <row r="439" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="20"/>
       <c r="B439" s="21"/>
       <c r="C439" s="44"/>
@@ -17236,7 +17238,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15">
+    <row r="440" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="20"/>
       <c r="B440" s="21"/>
       <c r="C440" s="44"/>
@@ -17264,7 +17266,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15">
+    <row r="441" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="20"/>
       <c r="B441" s="21"/>
       <c r="C441" s="44"/>
@@ -17292,7 +17294,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15">
+    <row r="442" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="20"/>
       <c r="B442" s="21"/>
       <c r="C442" s="44"/>
@@ -17320,7 +17322,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15">
+    <row r="443" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="20"/>
       <c r="B443" s="21"/>
       <c r="C443" s="44"/>
@@ -17348,7 +17350,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15">
+    <row r="444" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="20"/>
       <c r="B444" s="21"/>
       <c r="C444" s="44"/>
@@ -17376,7 +17378,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15">
+    <row r="445" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="20"/>
       <c r="B445" s="21"/>
       <c r="C445" s="44"/>
@@ -17404,7 +17406,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15">
+    <row r="446" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="20"/>
       <c r="B446" s="21"/>
       <c r="C446" s="44"/>
@@ -17432,7 +17434,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15">
+    <row r="447" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="20"/>
       <c r="B447" s="21"/>
       <c r="C447" s="44"/>
@@ -17460,7 +17462,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15">
+    <row r="448" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="20"/>
       <c r="B448" s="21"/>
       <c r="C448" s="44"/>
@@ -17488,7 +17490,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15">
+    <row r="449" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="20"/>
       <c r="B449" s="21"/>
       <c r="C449" s="44"/>
@@ -17516,7 +17518,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15">
+    <row r="450" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="20"/>
       <c r="B450" s="21"/>
       <c r="C450" s="44"/>
@@ -17544,7 +17546,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15">
+    <row r="451" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="20"/>
       <c r="B451" s="21"/>
       <c r="C451" s="44"/>
@@ -17572,7 +17574,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15">
+    <row r="452" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="20"/>
       <c r="B452" s="21"/>
       <c r="C452" s="44"/>
@@ -17600,7 +17602,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15">
+    <row r="453" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="20"/>
       <c r="B453" s="21"/>
       <c r="C453" s="44"/>
@@ -17628,7 +17630,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15">
+    <row r="454" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="20"/>
       <c r="B454" s="21"/>
       <c r="C454" s="44"/>
@@ -17656,7 +17658,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15">
+    <row r="455" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="20"/>
       <c r="B455" s="21"/>
       <c r="C455" s="44"/>
@@ -17684,7 +17686,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15">
+    <row r="456" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="20"/>
       <c r="B456" s="21"/>
       <c r="C456" s="44"/>
@@ -17712,7 +17714,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15">
+    <row r="457" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="20"/>
       <c r="B457" s="21"/>
       <c r="C457" s="44"/>
@@ -17740,7 +17742,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15">
+    <row r="458" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="20"/>
       <c r="B458" s="21"/>
       <c r="C458" s="44"/>
@@ -17768,7 +17770,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15">
+    <row r="459" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="20"/>
       <c r="B459" s="21"/>
       <c r="C459" s="44"/>
@@ -17796,7 +17798,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15">
+    <row r="460" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="20"/>
       <c r="B460" s="21"/>
       <c r="C460" s="44"/>
@@ -17824,7 +17826,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15">
+    <row r="461" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="20"/>
       <c r="B461" s="21"/>
       <c r="C461" s="44"/>
@@ -17852,7 +17854,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15">
+    <row r="462" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="20"/>
       <c r="B462" s="21"/>
       <c r="C462" s="44"/>
@@ -17880,7 +17882,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15">
+    <row r="463" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="20"/>
       <c r="B463" s="21"/>
       <c r="C463" s="44"/>
@@ -17908,7 +17910,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15">
+    <row r="464" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="20"/>
       <c r="B464" s="21"/>
       <c r="C464" s="44"/>
@@ -17936,7 +17938,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15">
+    <row r="465" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="20"/>
       <c r="B465" s="21"/>
       <c r="C465" s="44"/>
@@ -17964,7 +17966,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15">
+    <row r="466" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="20"/>
       <c r="B466" s="21"/>
       <c r="C466" s="44"/>
@@ -17992,7 +17994,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15">
+    <row r="467" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="20"/>
       <c r="B467" s="21"/>
       <c r="C467" s="44"/>
@@ -18020,7 +18022,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15">
+    <row r="468" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="20"/>
       <c r="B468" s="21"/>
       <c r="C468" s="44"/>
@@ -18048,7 +18050,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15">
+    <row r="469" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="20"/>
       <c r="B469" s="21"/>
       <c r="C469" s="44"/>
@@ -18076,7 +18078,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15">
+    <row r="470" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="20"/>
       <c r="B470" s="21"/>
       <c r="C470" s="44"/>
@@ -18104,7 +18106,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15">
+    <row r="471" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="20"/>
       <c r="B471" s="21"/>
       <c r="C471" s="44"/>
@@ -18132,7 +18134,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15">
+    <row r="472" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="20"/>
       <c r="B472" s="21"/>
       <c r="C472" s="44"/>
@@ -18160,7 +18162,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15">
+    <row r="473" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="20"/>
       <c r="B473" s="21"/>
       <c r="C473" s="44"/>
@@ -18188,7 +18190,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15">
+    <row r="474" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="20"/>
       <c r="B474" s="21"/>
       <c r="C474" s="44"/>
@@ -18216,7 +18218,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15">
+    <row r="475" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="20"/>
       <c r="B475" s="21"/>
       <c r="C475" s="44"/>
@@ -18244,7 +18246,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15">
+    <row r="476" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="20"/>
       <c r="B476" s="21"/>
       <c r="C476" s="44"/>
@@ -18272,7 +18274,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15">
+    <row r="477" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="20"/>
       <c r="B477" s="21"/>
       <c r="C477" s="44"/>
@@ -18300,7 +18302,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15">
+    <row r="478" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="20"/>
       <c r="B478" s="21"/>
       <c r="C478" s="44"/>
@@ -18328,7 +18330,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15">
+    <row r="479" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="20"/>
       <c r="B479" s="21"/>
       <c r="C479" s="44"/>
@@ -18356,7 +18358,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15">
+    <row r="480" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="20"/>
       <c r="B480" s="21"/>
       <c r="C480" s="44"/>
@@ -18384,7 +18386,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15">
+    <row r="481" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="20"/>
       <c r="B481" s="21"/>
       <c r="C481" s="44"/>
@@ -18412,7 +18414,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15">
+    <row r="482" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="20"/>
       <c r="B482" s="21"/>
       <c r="C482" s="44"/>
@@ -18440,7 +18442,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15">
+    <row r="483" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="20"/>
       <c r="B483" s="21"/>
       <c r="C483" s="44"/>
@@ -18468,7 +18470,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15">
+    <row r="484" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="20"/>
       <c r="B484" s="21"/>
       <c r="C484" s="44"/>
@@ -18496,7 +18498,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15">
+    <row r="485" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="20"/>
       <c r="B485" s="21"/>
       <c r="C485" s="44"/>
@@ -18524,7 +18526,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15">
+    <row r="486" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="20"/>
       <c r="B486" s="21"/>
       <c r="C486" s="44"/>
@@ -18552,7 +18554,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15">
+    <row r="487" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="20"/>
       <c r="B487" s="21"/>
       <c r="C487" s="44"/>
@@ -18580,7 +18582,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15">
+    <row r="488" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="20"/>
       <c r="B488" s="21"/>
       <c r="C488" s="44"/>
@@ -18608,7 +18610,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15">
+    <row r="489" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="20"/>
       <c r="B489" s="21"/>
       <c r="C489" s="44"/>
@@ -18636,7 +18638,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15">
+    <row r="490" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="20"/>
       <c r="B490" s="21"/>
       <c r="C490" s="44"/>
@@ -18664,7 +18666,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15">
+    <row r="491" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="20"/>
       <c r="B491" s="21"/>
       <c r="C491" s="44"/>
@@ -18692,7 +18694,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15">
+    <row r="492" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="20"/>
       <c r="B492" s="21"/>
       <c r="C492" s="44"/>
@@ -18720,7 +18722,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15">
+    <row r="493" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="20"/>
       <c r="B493" s="21"/>
       <c r="C493" s="44"/>
@@ -18748,7 +18750,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15">
+    <row r="494" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="20"/>
       <c r="B494" s="21"/>
       <c r="C494" s="44"/>
@@ -18776,7 +18778,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15">
+    <row r="495" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="20"/>
       <c r="B495" s="21"/>
       <c r="C495" s="44"/>
@@ -18804,7 +18806,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15">
+    <row r="496" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="20"/>
       <c r="B496" s="21"/>
       <c r="C496" s="44"/>
@@ -18832,7 +18834,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15">
+    <row r="497" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A497" s="20"/>
       <c r="B497" s="21"/>
       <c r="C497" s="44"/>
@@ -18860,7 +18862,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15">
+    <row r="498" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="20"/>
       <c r="B498" s="21"/>
       <c r="C498" s="44"/>
@@ -18888,7 +18890,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15">
+    <row r="499" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="20"/>
       <c r="B499" s="21"/>
       <c r="C499" s="44"/>
@@ -18916,7 +18918,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15">
+    <row r="500" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="20"/>
       <c r="B500" s="21"/>
       <c r="C500" s="44"/>
@@ -18944,7 +18946,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15">
+    <row r="501" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A501" s="20"/>
       <c r="B501" s="21"/>
       <c r="C501" s="44"/>
@@ -18972,7 +18974,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15">
+    <row r="502" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A502" s="20"/>
       <c r="B502" s="21"/>
       <c r="C502" s="44"/>
@@ -19000,7 +19002,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15">
+    <row r="503" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A503" s="20"/>
       <c r="B503" s="21"/>
       <c r="C503" s="44"/>
@@ -19028,7 +19030,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15">
+    <row r="504" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A504" s="20"/>
       <c r="B504" s="21"/>
       <c r="C504" s="44"/>
@@ -19056,7 +19058,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15">
+    <row r="505" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="20"/>
       <c r="B505" s="21"/>
       <c r="C505" s="44"/>
@@ -19084,7 +19086,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15">
+    <row r="506" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="20"/>
       <c r="B506" s="21"/>
       <c r="C506" s="44"/>
@@ -19112,7 +19114,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15">
+    <row r="507" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="20"/>
       <c r="B507" s="21"/>
       <c r="C507" s="44"/>
@@ -19140,7 +19142,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15">
+    <row r="508" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A508" s="20"/>
       <c r="B508" s="21"/>
       <c r="C508" s="44"/>
@@ -19168,7 +19170,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15">
+    <row r="509" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A509" s="20"/>
       <c r="B509" s="21"/>
       <c r="C509" s="44"/>
@@ -19196,7 +19198,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15">
+    <row r="510" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A510" s="20"/>
       <c r="B510" s="21"/>
       <c r="C510" s="44"/>
@@ -19224,7 +19226,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15">
+    <row r="511" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="20"/>
       <c r="B511" s="21"/>
       <c r="C511" s="44"/>
@@ -19252,7 +19254,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15">
+    <row r="512" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="20"/>
       <c r="B512" s="21"/>
       <c r="C512" s="44"/>
@@ -19280,7 +19282,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15">
+    <row r="513" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="20"/>
       <c r="B513" s="21"/>
       <c r="C513" s="44"/>
@@ -19308,7 +19310,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15">
+    <row r="514" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A514" s="20"/>
       <c r="B514" s="21"/>
       <c r="C514" s="44"/>
@@ -19336,7 +19338,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15">
+    <row r="515" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A515" s="20"/>
       <c r="B515" s="21"/>
       <c r="C515" s="44"/>
@@ -19364,7 +19366,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15">
+    <row r="516" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A516" s="20"/>
       <c r="B516" s="21"/>
       <c r="C516" s="44"/>
@@ -19392,7 +19394,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15">
+    <row r="517" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A517" s="20"/>
       <c r="B517" s="21"/>
       <c r="C517" s="44"/>
@@ -19420,7 +19422,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15">
+    <row r="518" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A518" s="20"/>
       <c r="B518" s="21"/>
       <c r="C518" s="44"/>
@@ -19448,7 +19450,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15">
+    <row r="519" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A519" s="20"/>
       <c r="B519" s="21"/>
       <c r="C519" s="44"/>
@@ -19476,7 +19478,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15">
+    <row r="520" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A520" s="20"/>
       <c r="B520" s="21"/>
       <c r="C520" s="44"/>
@@ -19504,7 +19506,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15">
+    <row r="521" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A521" s="20"/>
       <c r="B521" s="21"/>
       <c r="C521" s="44"/>
@@ -19532,7 +19534,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15">
+    <row r="522" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A522" s="20"/>
       <c r="B522" s="21"/>
       <c r="C522" s="44"/>
@@ -19560,7 +19562,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15">
+    <row r="523" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A523" s="20"/>
       <c r="B523" s="21"/>
       <c r="C523" s="44"/>
@@ -19588,7 +19590,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15">
+    <row r="524" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A524" s="20"/>
       <c r="B524" s="21"/>
       <c r="C524" s="44"/>
@@ -19616,7 +19618,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15">
+    <row r="525" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A525" s="20"/>
       <c r="B525" s="21"/>
       <c r="C525" s="44"/>
@@ -19644,7 +19646,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15">
+    <row r="526" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A526" s="20"/>
       <c r="B526" s="21"/>
       <c r="C526" s="44"/>
@@ -19672,7 +19674,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15">
+    <row r="527" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A527" s="20"/>
       <c r="B527" s="21"/>
       <c r="C527" s="44"/>
@@ -19700,7 +19702,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15">
+    <row r="528" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A528" s="20"/>
       <c r="B528" s="21"/>
       <c r="C528" s="44"/>
@@ -19728,7 +19730,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15">
+    <row r="529" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A529" s="20"/>
       <c r="B529" s="21"/>
       <c r="C529" s="44"/>
@@ -19756,7 +19758,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15">
+    <row r="530" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A530" s="20"/>
       <c r="B530" s="21"/>
       <c r="C530" s="44"/>
@@ -19784,7 +19786,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15">
+    <row r="531" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A531" s="20"/>
       <c r="B531" s="21"/>
       <c r="C531" s="44"/>
@@ -19812,7 +19814,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15">
+    <row r="532" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
       <c r="B532" s="21"/>
       <c r="C532" s="44"/>
@@ -19840,7 +19842,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15">
+    <row r="533" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A533" s="20"/>
       <c r="B533" s="21"/>
       <c r="C533" s="44"/>
@@ -19868,7 +19870,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15">
+    <row r="534" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A534" s="20"/>
       <c r="B534" s="21"/>
       <c r="C534" s="44"/>
@@ -19896,7 +19898,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15">
+    <row r="535" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A535" s="20"/>
       <c r="B535" s="21"/>
       <c r="C535" s="44"/>
@@ -19924,7 +19926,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15">
+    <row r="536" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A536" s="20"/>
       <c r="B536" s="21"/>
       <c r="C536" s="44"/>
@@ -19952,7 +19954,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15">
+    <row r="537" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A537" s="20"/>
       <c r="B537" s="21"/>
       <c r="C537" s="44"/>
@@ -19980,7 +19982,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15">
+    <row r="538" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A538" s="20"/>
       <c r="B538" s="21"/>
       <c r="C538" s="44"/>
@@ -20008,7 +20010,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15">
+    <row r="539" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A539" s="20"/>
       <c r="B539" s="21"/>
       <c r="C539" s="44"/>
@@ -20036,7 +20038,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15">
+    <row r="540" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A540" s="20"/>
       <c r="B540" s="21"/>
       <c r="C540" s="44"/>
@@ -20064,7 +20066,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15">
+    <row r="541" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A541" s="20"/>
       <c r="B541" s="21"/>
       <c r="C541" s="44"/>
@@ -20092,7 +20094,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15">
+    <row r="542" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A542" s="20"/>
       <c r="B542" s="21"/>
       <c r="C542" s="44"/>
@@ -20120,7 +20122,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15">
+    <row r="543" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A543" s="20"/>
       <c r="B543" s="21"/>
       <c r="C543" s="44"/>
@@ -20148,7 +20150,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15">
+    <row r="544" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A544" s="20"/>
       <c r="B544" s="21"/>
       <c r="C544" s="44"/>
@@ -20176,7 +20178,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15">
+    <row r="545" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A545" s="20"/>
       <c r="B545" s="21"/>
       <c r="C545" s="44"/>
@@ -20204,7 +20206,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15">
+    <row r="546" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A546" s="20"/>
       <c r="B546" s="21"/>
       <c r="C546" s="44"/>
@@ -20232,7 +20234,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15">
+    <row r="547" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A547" s="20"/>
       <c r="B547" s="21"/>
       <c r="C547" s="44"/>
@@ -20260,7 +20262,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15">
+    <row r="548" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A548" s="20"/>
       <c r="B548" s="21"/>
       <c r="C548" s="44"/>
@@ -20288,7 +20290,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15">
+    <row r="549" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A549" s="20"/>
       <c r="B549" s="21"/>
       <c r="C549" s="44"/>
@@ -20316,7 +20318,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15">
+    <row r="550" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A550" s="20"/>
       <c r="B550" s="21"/>
       <c r="C550" s="44"/>
@@ -20344,7 +20346,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15">
+    <row r="551" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="20"/>
       <c r="B551" s="21"/>
       <c r="C551" s="44"/>
@@ -20372,7 +20374,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15">
+    <row r="552" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A552" s="20"/>
       <c r="B552" s="21"/>
       <c r="C552" s="44"/>
@@ -20400,7 +20402,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15">
+    <row r="553" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A553" s="20"/>
       <c r="B553" s="21"/>
       <c r="C553" s="44"/>
@@ -20428,7 +20430,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15">
+    <row r="554" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A554" s="20"/>
       <c r="B554" s="21"/>
       <c r="C554" s="44"/>
@@ -20456,7 +20458,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15">
+    <row r="555" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A555" s="20"/>
       <c r="B555" s="21"/>
       <c r="C555" s="44"/>
@@ -20484,7 +20486,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15">
+    <row r="556" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A556" s="20"/>
       <c r="B556" s="21"/>
       <c r="C556" s="44"/>
@@ -20512,7 +20514,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15">
+    <row r="557" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A557" s="20"/>
       <c r="B557" s="21"/>
       <c r="C557" s="44"/>
@@ -20540,7 +20542,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15">
+    <row r="558" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A558" s="20"/>
       <c r="B558" s="21"/>
       <c r="C558" s="44"/>
@@ -20568,7 +20570,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15">
+    <row r="559" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A559" s="20"/>
       <c r="B559" s="21"/>
       <c r="C559" s="44"/>
@@ -20596,7 +20598,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15">
+    <row r="560" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A560" s="20"/>
       <c r="B560" s="21"/>
       <c r="C560" s="44"/>
@@ -20624,7 +20626,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15">
+    <row r="561" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A561" s="20"/>
       <c r="B561" s="21"/>
       <c r="C561" s="44"/>
@@ -20652,7 +20654,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15">
+    <row r="562" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A562" s="20"/>
       <c r="B562" s="21"/>
       <c r="C562" s="44"/>
@@ -20680,7 +20682,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15">
+    <row r="563" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A563" s="20"/>
       <c r="B563" s="21"/>
       <c r="C563" s="44"/>
@@ -20708,7 +20710,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15">
+    <row r="564" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A564" s="20"/>
       <c r="B564" s="21"/>
       <c r="C564" s="44"/>
@@ -20736,7 +20738,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15">
+    <row r="565" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A565" s="20"/>
       <c r="B565" s="21"/>
       <c r="C565" s="44"/>
@@ -20764,7 +20766,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15">
+    <row r="566" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A566" s="20"/>
       <c r="B566" s="21"/>
       <c r="C566" s="44"/>
@@ -20792,7 +20794,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15">
+    <row r="567" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A567" s="20"/>
       <c r="B567" s="21"/>
       <c r="C567" s="44"/>
@@ -20820,7 +20822,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15">
+    <row r="568" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A568" s="20"/>
       <c r="B568" s="21"/>
       <c r="C568" s="44"/>
@@ -20848,7 +20850,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15">
+    <row r="569" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A569" s="20"/>
       <c r="B569" s="21"/>
       <c r="C569" s="44"/>
@@ -20876,7 +20878,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15">
+    <row r="570" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A570" s="20"/>
       <c r="B570" s="21"/>
       <c r="C570" s="44"/>
@@ -20904,7 +20906,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15">
+    <row r="571" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A571" s="20"/>
       <c r="B571" s="21"/>
       <c r="C571" s="44"/>
@@ -20932,7 +20934,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15">
+    <row r="572" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A572" s="20"/>
       <c r="B572" s="21"/>
       <c r="C572" s="44"/>
@@ -20960,7 +20962,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15">
+    <row r="573" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A573" s="20"/>
       <c r="B573" s="21"/>
       <c r="C573" s="44"/>
@@ -20988,7 +20990,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15">
+    <row r="574" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A574" s="20"/>
       <c r="B574" s="21"/>
       <c r="C574" s="44"/>
@@ -21016,7 +21018,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15">
+    <row r="575" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A575" s="20"/>
       <c r="B575" s="21"/>
       <c r="C575" s="44"/>
@@ -21044,7 +21046,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15">
+    <row r="576" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A576" s="20"/>
       <c r="B576" s="21"/>
       <c r="C576" s="44"/>
@@ -21072,7 +21074,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15">
+    <row r="577" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A577" s="20"/>
       <c r="B577" s="21"/>
       <c r="C577" s="44"/>
@@ -21100,7 +21102,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15">
+    <row r="578" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A578" s="20"/>
       <c r="B578" s="21"/>
       <c r="C578" s="44"/>
@@ -21128,7 +21130,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15">
+    <row r="579" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A579" s="20"/>
       <c r="B579" s="21"/>
       <c r="C579" s="44"/>
@@ -21156,7 +21158,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15">
+    <row r="580" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A580" s="20"/>
       <c r="B580" s="21"/>
       <c r="C580" s="44"/>
@@ -21184,7 +21186,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15">
+    <row r="581" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A581" s="20"/>
       <c r="B581" s="21"/>
       <c r="C581" s="44"/>
@@ -21212,7 +21214,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15">
+    <row r="582" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A582" s="20"/>
       <c r="B582" s="21"/>
       <c r="C582" s="44"/>
@@ -21240,7 +21242,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15">
+    <row r="583" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A583" s="20"/>
       <c r="B583" s="21"/>
       <c r="C583" s="44"/>
@@ -21268,7 +21270,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15">
+    <row r="584" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A584" s="20"/>
       <c r="B584" s="21"/>
       <c r="C584" s="44"/>
@@ -21296,7 +21298,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15">
+    <row r="585" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A585" s="20"/>
       <c r="B585" s="21"/>
       <c r="C585" s="44"/>
@@ -21324,7 +21326,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15">
+    <row r="586" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A586" s="20"/>
       <c r="B586" s="21"/>
       <c r="C586" s="44"/>
@@ -21352,7 +21354,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15">
+    <row r="587" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A587" s="20"/>
       <c r="B587" s="21"/>
       <c r="C587" s="44"/>
@@ -21380,7 +21382,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15">
+    <row r="588" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A588" s="20"/>
       <c r="B588" s="21"/>
       <c r="C588" s="44"/>
@@ -21408,7 +21410,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15">
+    <row r="589" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A589" s="20"/>
       <c r="B589" s="21"/>
       <c r="C589" s="44"/>
@@ -21436,7 +21438,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15">
+    <row r="590" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A590" s="20"/>
       <c r="B590" s="21"/>
       <c r="C590" s="44"/>
@@ -21464,7 +21466,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15">
+    <row r="591" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A591" s="20"/>
       <c r="B591" s="21"/>
       <c r="C591" s="44"/>
@@ -21492,7 +21494,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15">
+    <row r="592" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A592" s="20"/>
       <c r="B592" s="21"/>
       <c r="C592" s="44"/>
@@ -21520,7 +21522,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15">
+    <row r="593" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A593" s="20"/>
       <c r="B593" s="21"/>
       <c r="C593" s="44"/>
@@ -21548,7 +21550,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15">
+    <row r="594" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A594" s="20"/>
       <c r="B594" s="21"/>
       <c r="C594" s="44"/>
@@ -21576,7 +21578,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15">
+    <row r="595" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A595" s="20"/>
       <c r="B595" s="21"/>
       <c r="C595" s="44"/>
@@ -21604,7 +21606,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15">
+    <row r="596" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A596" s="20"/>
       <c r="B596" s="21"/>
       <c r="C596" s="44"/>
@@ -21632,7 +21634,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15">
+    <row r="597" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A597" s="20"/>
       <c r="B597" s="21"/>
       <c r="C597" s="44"/>
@@ -21660,7 +21662,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15">
+    <row r="598" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A598" s="20"/>
       <c r="B598" s="21"/>
       <c r="C598" s="44"/>
@@ -21688,7 +21690,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15">
+    <row r="599" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A599" s="20"/>
       <c r="B599" s="21"/>
       <c r="C599" s="44"/>
@@ -21716,7 +21718,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15">
+    <row r="600" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A600" s="20"/>
       <c r="B600" s="21"/>
       <c r="C600" s="44"/>
@@ -21744,7 +21746,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15">
+    <row r="601" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A601" s="20"/>
       <c r="B601" s="21"/>
       <c r="C601" s="44"/>
@@ -21772,7 +21774,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15">
+    <row r="602" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A602" s="20"/>
       <c r="B602" s="21"/>
       <c r="C602" s="44"/>
@@ -21800,7 +21802,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15">
+    <row r="603" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A603" s="20"/>
       <c r="B603" s="21"/>
       <c r="C603" s="44"/>
@@ -21828,7 +21830,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15">
+    <row r="604" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A604" s="20"/>
       <c r="B604" s="21"/>
       <c r="C604" s="44"/>
@@ -21856,7 +21858,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15">
+    <row r="605" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A605" s="20"/>
       <c r="B605" s="21"/>
       <c r="C605" s="44"/>
@@ -21884,7 +21886,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15">
+    <row r="606" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A606" s="20"/>
       <c r="B606" s="21"/>
       <c r="C606" s="44"/>
@@ -21912,7 +21914,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15">
+    <row r="607" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A607" s="20"/>
       <c r="B607" s="21"/>
       <c r="C607" s="44"/>
@@ -21940,7 +21942,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15">
+    <row r="608" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A608" s="20"/>
       <c r="B608" s="21"/>
       <c r="C608" s="44"/>
@@ -21968,7 +21970,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15">
+    <row r="609" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A609" s="20"/>
       <c r="B609" s="21"/>
       <c r="C609" s="44"/>
@@ -21996,7 +21998,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15">
+    <row r="610" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A610" s="20"/>
       <c r="B610" s="21"/>
       <c r="C610" s="44"/>
@@ -22024,7 +22026,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15">
+    <row r="611" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A611" s="20"/>
       <c r="B611" s="21"/>
       <c r="C611" s="44"/>
@@ -22052,7 +22054,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15">
+    <row r="612" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A612" s="20"/>
       <c r="B612" s="21"/>
       <c r="C612" s="44"/>
@@ -22080,7 +22082,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15">
+    <row r="613" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A613" s="20"/>
       <c r="B613" s="21"/>
       <c r="C613" s="44"/>
@@ -22108,7 +22110,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15">
+    <row r="614" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A614" s="20"/>
       <c r="B614" s="21"/>
       <c r="C614" s="44"/>
@@ -22136,7 +22138,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15">
+    <row r="615" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A615" s="20"/>
       <c r="B615" s="21"/>
       <c r="C615" s="44"/>
@@ -22164,7 +22166,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15">
+    <row r="616" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A616" s="20"/>
       <c r="B616" s="21"/>
       <c r="C616" s="44"/>
@@ -22192,7 +22194,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15">
+    <row r="617" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A617" s="20"/>
       <c r="B617" s="21"/>
       <c r="C617" s="44"/>
@@ -22220,7 +22222,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15">
+    <row r="618" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A618" s="20"/>
       <c r="B618" s="21"/>
       <c r="C618" s="44"/>
@@ -22248,7 +22250,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15">
+    <row r="619" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A619" s="20"/>
       <c r="B619" s="21"/>
       <c r="C619" s="44"/>
@@ -22276,7 +22278,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15">
+    <row r="620" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A620" s="20"/>
       <c r="B620" s="21"/>
       <c r="C620" s="44"/>
@@ -22304,7 +22306,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15">
+    <row r="621" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A621" s="20"/>
       <c r="B621" s="21"/>
       <c r="C621" s="44"/>
@@ -22332,7 +22334,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15">
+    <row r="622" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A622" s="20"/>
       <c r="B622" s="21"/>
       <c r="C622" s="44"/>
@@ -22360,7 +22362,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15">
+    <row r="623" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A623" s="20"/>
       <c r="B623" s="21"/>
       <c r="C623" s="44"/>
@@ -22388,7 +22390,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15">
+    <row r="624" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A624" s="20"/>
       <c r="B624" s="21"/>
       <c r="C624" s="44"/>
@@ -22416,7 +22418,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15">
+    <row r="625" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A625" s="20"/>
       <c r="B625" s="21"/>
       <c r="C625" s="44"/>
@@ -22444,7 +22446,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15">
+    <row r="626" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A626" s="20"/>
       <c r="B626" s="21"/>
       <c r="C626" s="44"/>
@@ -22472,7 +22474,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15">
+    <row r="627" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A627" s="20"/>
       <c r="B627" s="21"/>
       <c r="C627" s="44"/>
@@ -22500,7 +22502,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15">
+    <row r="628" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A628" s="20"/>
       <c r="B628" s="21"/>
       <c r="C628" s="44"/>
@@ -22528,7 +22530,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15">
+    <row r="629" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A629" s="20"/>
       <c r="B629" s="21"/>
       <c r="C629" s="44"/>
@@ -22556,7 +22558,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15">
+    <row r="630" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A630" s="20"/>
       <c r="B630" s="21"/>
       <c r="C630" s="44"/>
@@ -22584,7 +22586,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15">
+    <row r="631" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A631" s="20"/>
       <c r="B631" s="21"/>
       <c r="C631" s="44"/>
@@ -22612,7 +22614,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15">
+    <row r="632" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A632" s="20"/>
       <c r="B632" s="21"/>
       <c r="C632" s="44"/>
@@ -22640,7 +22642,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15">
+    <row r="633" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A633" s="20"/>
       <c r="B633" s="21"/>
       <c r="C633" s="44"/>
@@ -22668,7 +22670,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15">
+    <row r="634" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A634" s="20"/>
       <c r="B634" s="21"/>
       <c r="C634" s="44"/>
@@ -22696,7 +22698,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15">
+    <row r="635" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A635" s="20"/>
       <c r="B635" s="21"/>
       <c r="C635" s="44"/>
@@ -22724,7 +22726,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15">
+    <row r="636" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A636" s="20"/>
       <c r="B636" s="21"/>
       <c r="C636" s="44"/>
@@ -22752,7 +22754,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15">
+    <row r="637" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A637" s="20"/>
       <c r="B637" s="21"/>
       <c r="C637" s="44"/>
@@ -22780,7 +22782,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15">
+    <row r="638" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A638" s="20"/>
       <c r="B638" s="21"/>
       <c r="C638" s="44"/>
@@ -22808,7 +22810,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15">
+    <row r="639" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A639" s="20"/>
       <c r="B639" s="21"/>
       <c r="C639" s="44"/>
@@ -22836,7 +22838,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15">
+    <row r="640" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A640" s="20"/>
       <c r="B640" s="21"/>
       <c r="C640" s="44"/>
@@ -22864,7 +22866,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15">
+    <row r="641" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A641" s="20"/>
       <c r="B641" s="21"/>
       <c r="C641" s="44"/>
@@ -22892,7 +22894,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15">
+    <row r="642" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A642" s="20"/>
       <c r="B642" s="21"/>
       <c r="C642" s="44"/>
@@ -22920,7 +22922,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15">
+    <row r="643" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A643" s="20"/>
       <c r="B643" s="21"/>
       <c r="C643" s="44"/>
@@ -22948,7 +22950,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15">
+    <row r="644" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A644" s="20"/>
       <c r="B644" s="21"/>
       <c r="C644" s="44"/>
@@ -22976,7 +22978,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15">
+    <row r="645" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A645" s="20"/>
       <c r="B645" s="21"/>
       <c r="C645" s="44"/>
@@ -23004,7 +23006,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15">
+    <row r="646" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A646" s="20"/>
       <c r="B646" s="21"/>
       <c r="C646" s="44"/>
@@ -23032,7 +23034,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15">
+    <row r="647" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A647" s="20"/>
       <c r="B647" s="21"/>
       <c r="C647" s="44"/>
@@ -23060,7 +23062,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15">
+    <row r="648" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A648" s="20"/>
       <c r="B648" s="21"/>
       <c r="C648" s="44"/>
@@ -23088,7 +23090,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15">
+    <row r="649" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A649" s="20"/>
       <c r="B649" s="21"/>
       <c r="C649" s="44"/>
@@ -23116,7 +23118,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15">
+    <row r="650" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A650" s="20"/>
       <c r="B650" s="21"/>
       <c r="C650" s="44"/>
@@ -23144,7 +23146,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15">
+    <row r="651" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A651" s="20"/>
       <c r="B651" s="21"/>
       <c r="C651" s="44"/>
@@ -23172,7 +23174,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15">
+    <row r="652" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A652" s="20"/>
       <c r="B652" s="21"/>
       <c r="C652" s="44"/>
@@ -23200,7 +23202,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15">
+    <row r="653" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A653" s="20"/>
       <c r="B653" s="21"/>
       <c r="C653" s="44"/>
@@ -23228,7 +23230,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15">
+    <row r="654" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A654" s="20"/>
       <c r="B654" s="21"/>
       <c r="C654" s="44"/>
@@ -23256,7 +23258,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15">
+    <row r="655" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A655" s="20"/>
       <c r="B655" s="21"/>
       <c r="C655" s="44"/>
@@ -23284,7 +23286,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15">
+    <row r="656" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A656" s="20"/>
       <c r="B656" s="21"/>
       <c r="C656" s="44"/>
@@ -23312,7 +23314,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15">
+    <row r="657" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A657" s="20"/>
       <c r="B657" s="21"/>
       <c r="C657" s="44"/>
@@ -23340,7 +23342,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15">
+    <row r="658" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A658" s="20"/>
       <c r="B658" s="21"/>
       <c r="C658" s="44"/>
@@ -23368,7 +23370,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15">
+    <row r="659" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A659" s="20"/>
       <c r="B659" s="21"/>
       <c r="C659" s="44"/>
@@ -23396,7 +23398,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15">
+    <row r="660" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A660" s="20"/>
       <c r="B660" s="21"/>
       <c r="C660" s="44"/>
@@ -23424,7 +23426,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15">
+    <row r="661" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A661" s="20"/>
       <c r="B661" s="21"/>
       <c r="C661" s="44"/>
@@ -23452,7 +23454,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15">
+    <row r="662" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A662" s="20"/>
       <c r="B662" s="21"/>
       <c r="C662" s="44"/>
@@ -23480,7 +23482,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15">
+    <row r="663" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A663" s="20"/>
       <c r="B663" s="21"/>
       <c r="C663" s="44"/>
@@ -23508,7 +23510,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15">
+    <row r="664" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A664" s="20"/>
       <c r="B664" s="21"/>
       <c r="C664" s="44"/>
@@ -23536,7 +23538,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15">
+    <row r="665" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A665" s="20"/>
       <c r="B665" s="21"/>
       <c r="C665" s="44"/>
@@ -23564,7 +23566,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15">
+    <row r="666" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A666" s="20"/>
       <c r="B666" s="21"/>
       <c r="C666" s="44"/>
@@ -23592,7 +23594,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15">
+    <row r="667" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A667" s="20"/>
       <c r="B667" s="21"/>
       <c r="C667" s="44"/>
@@ -23620,7 +23622,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15">
+    <row r="668" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A668" s="20"/>
       <c r="B668" s="21"/>
       <c r="C668" s="44"/>
@@ -23648,7 +23650,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15">
+    <row r="669" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A669" s="20"/>
       <c r="B669" s="21"/>
       <c r="C669" s="44"/>
@@ -23676,7 +23678,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15">
+    <row r="670" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A670" s="20"/>
       <c r="B670" s="21"/>
       <c r="C670" s="44"/>
@@ -23704,7 +23706,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15">
+    <row r="671" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A671" s="20"/>
       <c r="B671" s="21"/>
       <c r="C671" s="44"/>
@@ -23732,7 +23734,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15">
+    <row r="672" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A672" s="20"/>
       <c r="B672" s="21"/>
       <c r="C672" s="44"/>
@@ -23760,7 +23762,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15">
+    <row r="673" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A673" s="20"/>
       <c r="B673" s="21"/>
       <c r="C673" s="44"/>
@@ -23788,7 +23790,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15">
+    <row r="674" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A674" s="20"/>
       <c r="B674" s="21"/>
       <c r="C674" s="44"/>
@@ -23816,7 +23818,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15">
+    <row r="675" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A675" s="20"/>
       <c r="B675" s="21"/>
       <c r="C675" s="44"/>
@@ -23844,7 +23846,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15">
+    <row r="676" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A676" s="20"/>
       <c r="B676" s="21"/>
       <c r="C676" s="44"/>
@@ -23872,7 +23874,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15">
+    <row r="677" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A677" s="20"/>
       <c r="B677" s="21"/>
       <c r="C677" s="44"/>
@@ -23900,7 +23902,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15">
+    <row r="678" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A678" s="20"/>
       <c r="B678" s="21"/>
       <c r="C678" s="44"/>
@@ -23928,7 +23930,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15">
+    <row r="679" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A679" s="20"/>
       <c r="B679" s="21"/>
       <c r="C679" s="44"/>
@@ -23956,7 +23958,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15">
+    <row r="680" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A680" s="20"/>
       <c r="B680" s="21"/>
       <c r="C680" s="44"/>
@@ -23984,7 +23986,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15">
+    <row r="681" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A681" s="20"/>
       <c r="B681" s="21"/>
       <c r="C681" s="44"/>
@@ -24012,7 +24014,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15">
+    <row r="682" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A682" s="20"/>
       <c r="B682" s="21"/>
       <c r="C682" s="44"/>
@@ -24040,7 +24042,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15">
+    <row r="683" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A683" s="20"/>
       <c r="B683" s="21"/>
       <c r="C683" s="44"/>
@@ -24068,7 +24070,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15">
+    <row r="684" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A684" s="20"/>
       <c r="B684" s="21"/>
       <c r="C684" s="44"/>
@@ -24096,7 +24098,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15">
+    <row r="685" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A685" s="20"/>
       <c r="B685" s="21"/>
       <c r="C685" s="44"/>
@@ -24124,7 +24126,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15">
+    <row r="686" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A686" s="20"/>
       <c r="B686" s="21"/>
       <c r="C686" s="44"/>
@@ -24152,7 +24154,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15">
+    <row r="687" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A687" s="20"/>
       <c r="B687" s="21"/>
       <c r="C687" s="44"/>
@@ -24180,7 +24182,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15">
+    <row r="688" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A688" s="20"/>
       <c r="B688" s="21"/>
       <c r="C688" s="44"/>
@@ -24208,7 +24210,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15">
+    <row r="689" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A689" s="20"/>
       <c r="B689" s="21"/>
       <c r="C689" s="44"/>
@@ -24236,7 +24238,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15">
+    <row r="690" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A690" s="20"/>
       <c r="B690" s="21"/>
       <c r="C690" s="44"/>
@@ -24264,7 +24266,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15">
+    <row r="691" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A691" s="20"/>
       <c r="B691" s="21"/>
       <c r="C691" s="44"/>
@@ -24292,7 +24294,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15">
+    <row r="692" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A692" s="20"/>
       <c r="B692" s="21"/>
       <c r="C692" s="44"/>
@@ -24320,7 +24322,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15">
+    <row r="693" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A693" s="20"/>
       <c r="B693" s="21"/>
       <c r="C693" s="44"/>
@@ -24348,7 +24350,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15">
+    <row r="694" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A694" s="20"/>
       <c r="B694" s="21"/>
       <c r="C694" s="44"/>
@@ -24376,7 +24378,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15">
+    <row r="695" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A695" s="20"/>
       <c r="B695" s="21"/>
       <c r="C695" s="44"/>
@@ -24404,7 +24406,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15">
+    <row r="696" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A696" s="20"/>
       <c r="B696" s="21"/>
       <c r="C696" s="44"/>
@@ -24432,7 +24434,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15">
+    <row r="697" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A697" s="20"/>
       <c r="B697" s="21"/>
       <c r="C697" s="44"/>
@@ -24460,7 +24462,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15">
+    <row r="698" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A698" s="20"/>
       <c r="B698" s="21"/>
       <c r="C698" s="44"/>
@@ -24488,7 +24490,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15">
+    <row r="699" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A699" s="20"/>
       <c r="B699" s="21"/>
       <c r="C699" s="44"/>
@@ -24516,7 +24518,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15">
+    <row r="700" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A700" s="20"/>
       <c r="B700" s="21"/>
       <c r="C700" s="44"/>
@@ -24544,7 +24546,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15">
+    <row r="701" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A701" s="20"/>
       <c r="B701" s="21"/>
       <c r="C701" s="44"/>
@@ -24572,7 +24574,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15">
+    <row r="702" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A702" s="20"/>
       <c r="B702" s="21"/>
       <c r="C702" s="44"/>
@@ -24600,7 +24602,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15">
+    <row r="703" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A703" s="20"/>
       <c r="B703" s="21"/>
       <c r="C703" s="44"/>
@@ -24628,7 +24630,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15">
+    <row r="704" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A704" s="20"/>
       <c r="B704" s="21"/>
       <c r="C704" s="44"/>
@@ -24656,7 +24658,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15">
+    <row r="705" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A705" s="20"/>
       <c r="B705" s="21"/>
       <c r="C705" s="44"/>
@@ -24684,7 +24686,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15">
+    <row r="706" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A706" s="20"/>
       <c r="B706" s="21"/>
       <c r="C706" s="44"/>
@@ -24712,7 +24714,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15">
+    <row r="707" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A707" s="20"/>
       <c r="B707" s="21"/>
       <c r="C707" s="44"/>
@@ -24740,7 +24742,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15">
+    <row r="708" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A708" s="20"/>
       <c r="B708" s="21"/>
       <c r="C708" s="44"/>
@@ -24768,7 +24770,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15">
+    <row r="709" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A709" s="20"/>
       <c r="B709" s="21"/>
       <c r="C709" s="44"/>
@@ -24796,7 +24798,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15">
+    <row r="710" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A710" s="20"/>
       <c r="B710" s="21"/>
       <c r="C710" s="44"/>
@@ -24824,7 +24826,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15">
+    <row r="711" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A711" s="20"/>
       <c r="B711" s="21"/>
       <c r="C711" s="44"/>
@@ -24852,7 +24854,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15">
+    <row r="712" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A712" s="20"/>
       <c r="B712" s="21"/>
       <c r="C712" s="44"/>
@@ -24880,7 +24882,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15">
+    <row r="713" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A713" s="20"/>
       <c r="B713" s="21"/>
       <c r="C713" s="44"/>
@@ -24908,7 +24910,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15">
+    <row r="714" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A714" s="20"/>
       <c r="B714" s="21"/>
       <c r="C714" s="44"/>
@@ -24936,7 +24938,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15">
+    <row r="715" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A715" s="20"/>
       <c r="B715" s="21"/>
       <c r="C715" s="44"/>
@@ -24964,7 +24966,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15">
+    <row r="716" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A716" s="20"/>
       <c r="B716" s="21"/>
       <c r="C716" s="44"/>
@@ -24992,7 +24994,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15">
+    <row r="717" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A717" s="20"/>
       <c r="B717" s="21"/>
       <c r="C717" s="44"/>
@@ -25020,7 +25022,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15">
+    <row r="718" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A718" s="20"/>
       <c r="B718" s="21"/>
       <c r="C718" s="44"/>
@@ -25048,7 +25050,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15">
+    <row r="719" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A719" s="20"/>
       <c r="B719" s="21"/>
       <c r="C719" s="44"/>
@@ -25076,7 +25078,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15">
+    <row r="720" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A720" s="20"/>
       <c r="B720" s="21"/>
       <c r="C720" s="44"/>
@@ -25104,7 +25106,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15">
+    <row r="721" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A721" s="20"/>
       <c r="B721" s="21"/>
       <c r="C721" s="44"/>
@@ -25132,7 +25134,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15">
+    <row r="722" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A722" s="20"/>
       <c r="B722" s="21"/>
       <c r="C722" s="44"/>
@@ -25160,7 +25162,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15">
+    <row r="723" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A723" s="20"/>
       <c r="B723" s="21"/>
       <c r="C723" s="44"/>
@@ -25188,7 +25190,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15">
+    <row r="724" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A724" s="20"/>
       <c r="B724" s="21"/>
       <c r="C724" s="44"/>
@@ -25216,7 +25218,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15">
+    <row r="725" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A725" s="20"/>
       <c r="B725" s="21"/>
       <c r="C725" s="44"/>
@@ -25244,7 +25246,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15">
+    <row r="726" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A726" s="20"/>
       <c r="B726" s="21"/>
       <c r="C726" s="44"/>
@@ -25272,7 +25274,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15">
+    <row r="727" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A727" s="20"/>
       <c r="B727" s="21"/>
       <c r="C727" s="44"/>
@@ -25300,7 +25302,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15">
+    <row r="728" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A728" s="20"/>
       <c r="B728" s="21"/>
       <c r="C728" s="44"/>
@@ -25328,7 +25330,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15">
+    <row r="729" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A729" s="20"/>
       <c r="B729" s="21"/>
       <c r="C729" s="44"/>
@@ -25356,7 +25358,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15">
+    <row r="730" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A730" s="20"/>
       <c r="B730" s="21"/>
       <c r="C730" s="44"/>
@@ -25384,7 +25386,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15">
+    <row r="731" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A731" s="20"/>
       <c r="B731" s="21"/>
       <c r="C731" s="44"/>
@@ -25412,7 +25414,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15">
+    <row r="732" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A732" s="20"/>
       <c r="B732" s="21"/>
       <c r="C732" s="44"/>
@@ -25440,7 +25442,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15">
+    <row r="733" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A733" s="20"/>
       <c r="B733" s="21"/>
       <c r="C733" s="44"/>
@@ -25468,7 +25470,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15">
+    <row r="734" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A734" s="20"/>
       <c r="B734" s="21"/>
       <c r="C734" s="44"/>
@@ -25496,7 +25498,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15">
+    <row r="735" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A735" s="20"/>
       <c r="B735" s="21"/>
       <c r="C735" s="44"/>
@@ -25524,7 +25526,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15">
+    <row r="736" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A736" s="20"/>
       <c r="B736" s="21"/>
       <c r="C736" s="44"/>
@@ -25552,7 +25554,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15">
+    <row r="737" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A737" s="20"/>
       <c r="B737" s="21"/>
       <c r="C737" s="44"/>
@@ -25580,7 +25582,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15">
+    <row r="738" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A738" s="20"/>
       <c r="B738" s="21"/>
       <c r="C738" s="44"/>
@@ -25608,7 +25610,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15">
+    <row r="739" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A739" s="20"/>
       <c r="B739" s="21"/>
       <c r="C739" s="44"/>
@@ -25636,7 +25638,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15">
+    <row r="740" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A740" s="20"/>
       <c r="B740" s="21"/>
       <c r="C740" s="44"/>
@@ -25664,7 +25666,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15">
+    <row r="741" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A741" s="20"/>
       <c r="B741" s="21"/>
       <c r="C741" s="44"/>
@@ -25692,7 +25694,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15">
+    <row r="742" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A742" s="20"/>
       <c r="B742" s="21"/>
       <c r="C742" s="44"/>
@@ -25720,7 +25722,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15">
+    <row r="743" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A743" s="20"/>
       <c r="B743" s="21"/>
       <c r="C743" s="44"/>
@@ -25748,7 +25750,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15">
+    <row r="744" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A744" s="20"/>
       <c r="B744" s="21"/>
       <c r="C744" s="44"/>
@@ -25776,7 +25778,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15">
+    <row r="745" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A745" s="20"/>
       <c r="B745" s="21"/>
       <c r="C745" s="44"/>
@@ -25804,7 +25806,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15">
+    <row r="746" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A746" s="20"/>
       <c r="B746" s="21"/>
       <c r="C746" s="44"/>
@@ -25832,7 +25834,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15">
+    <row r="747" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A747" s="20"/>
       <c r="B747" s="21"/>
       <c r="C747" s="44"/>
@@ -25860,7 +25862,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15">
+    <row r="748" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A748" s="20"/>
       <c r="B748" s="21"/>
       <c r="C748" s="44"/>
@@ -25888,7 +25890,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15">
+    <row r="749" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A749" s="20"/>
       <c r="B749" s="21"/>
       <c r="C749" s="44"/>
@@ -25916,7 +25918,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15">
+    <row r="750" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A750" s="20"/>
       <c r="B750" s="21"/>
       <c r="C750" s="44"/>
@@ -25944,7 +25946,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15">
+    <row r="751" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A751" s="20"/>
       <c r="B751" s="21"/>
       <c r="C751" s="44"/>
@@ -25972,7 +25974,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15">
+    <row r="752" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A752" s="20"/>
       <c r="B752" s="21"/>
       <c r="C752" s="44"/>
@@ -26000,7 +26002,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15">
+    <row r="753" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A753" s="20"/>
       <c r="B753" s="21"/>
       <c r="C753" s="44"/>
@@ -26028,7 +26030,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15">
+    <row r="754" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A754" s="20"/>
       <c r="B754" s="21"/>
       <c r="C754" s="44"/>
@@ -26056,7 +26058,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15">
+    <row r="755" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A755" s="20"/>
       <c r="B755" s="21"/>
       <c r="C755" s="44"/>
@@ -26084,7 +26086,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15">
+    <row r="756" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A756" s="20"/>
       <c r="B756" s="21"/>
       <c r="C756" s="44"/>
@@ -26112,7 +26114,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15">
+    <row r="757" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A757" s="20"/>
       <c r="B757" s="21"/>
       <c r="C757" s="44"/>
@@ -26140,7 +26142,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15">
+    <row r="758" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A758" s="20"/>
       <c r="B758" s="21"/>
       <c r="C758" s="44"/>
@@ -26168,7 +26170,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15">
+    <row r="759" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A759" s="20"/>
       <c r="B759" s="21"/>
       <c r="C759" s="44"/>
@@ -26196,7 +26198,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15">
+    <row r="760" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A760" s="20"/>
       <c r="B760" s="21"/>
       <c r="C760" s="44"/>
@@ -26224,7 +26226,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15">
+    <row r="761" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A761" s="20"/>
       <c r="B761" s="21"/>
       <c r="C761" s="44"/>
@@ -26252,7 +26254,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15">
+    <row r="762" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A762" s="20"/>
       <c r="B762" s="21"/>
       <c r="C762" s="44"/>
@@ -26280,7 +26282,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15">
+    <row r="763" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A763" s="20"/>
       <c r="B763" s="21"/>
       <c r="C763" s="44"/>
@@ -26308,7 +26310,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15">
+    <row r="764" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A764" s="20"/>
       <c r="B764" s="21"/>
       <c r="C764" s="44"/>
@@ -26336,7 +26338,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15">
+    <row r="765" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A765" s="20"/>
       <c r="B765" s="21"/>
       <c r="C765" s="44"/>
@@ -26364,7 +26366,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15">
+    <row r="766" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A766" s="20"/>
       <c r="B766" s="21"/>
       <c r="C766" s="44"/>
@@ -26392,7 +26394,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15">
+    <row r="767" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A767" s="20"/>
       <c r="B767" s="21"/>
       <c r="C767" s="44"/>
@@ -26420,7 +26422,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15">
+    <row r="768" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A768" s="20"/>
       <c r="B768" s="21"/>
       <c r="C768" s="44"/>
@@ -26448,7 +26450,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15">
+    <row r="769" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A769" s="20"/>
       <c r="B769" s="21"/>
       <c r="C769" s="44"/>
@@ -26476,7 +26478,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15">
+    <row r="770" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A770" s="20"/>
       <c r="B770" s="21"/>
       <c r="C770" s="44"/>
@@ -26504,7 +26506,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15">
+    <row r="771" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A771" s="20"/>
       <c r="B771" s="21"/>
       <c r="C771" s="44"/>
@@ -26532,7 +26534,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15">
+    <row r="772" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A772" s="20"/>
       <c r="B772" s="21"/>
       <c r="C772" s="44"/>
@@ -26560,7 +26562,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15">
+    <row r="773" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A773" s="20"/>
       <c r="B773" s="21"/>
       <c r="C773" s="44"/>
@@ -26588,7 +26590,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15">
+    <row r="774" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A774" s="20"/>
       <c r="B774" s="21"/>
       <c r="C774" s="44"/>
@@ -26616,7 +26618,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15">
+    <row r="775" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A775" s="20"/>
       <c r="B775" s="21"/>
       <c r="C775" s="44"/>
@@ -26644,7 +26646,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15">
+    <row r="776" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A776" s="20"/>
       <c r="B776" s="21"/>
       <c r="C776" s="44"/>
@@ -26672,7 +26674,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15">
+    <row r="777" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A777" s="20"/>
       <c r="B777" s="21"/>
       <c r="C777" s="44"/>
@@ -26700,7 +26702,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15">
+    <row r="778" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A778" s="20"/>
       <c r="B778" s="21"/>
       <c r="C778" s="44"/>
@@ -26728,7 +26730,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15">
+    <row r="779" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A779" s="20"/>
       <c r="B779" s="21"/>
       <c r="C779" s="44"/>
@@ -26756,7 +26758,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15">
+    <row r="780" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A780" s="20"/>
       <c r="B780" s="21"/>
       <c r="C780" s="44"/>
@@ -26784,7 +26786,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15">
+    <row r="781" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A781" s="20"/>
       <c r="B781" s="21"/>
       <c r="C781" s="44"/>
@@ -26812,7 +26814,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15">
+    <row r="782" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A782" s="20"/>
       <c r="B782" s="21"/>
       <c r="C782" s="44"/>
@@ -26840,7 +26842,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15">
+    <row r="783" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A783" s="20"/>
       <c r="B783" s="21"/>
       <c r="C783" s="44"/>
@@ -26868,7 +26870,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15">
+    <row r="784" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A784" s="20"/>
       <c r="B784" s="21"/>
       <c r="C784" s="44"/>
@@ -26896,7 +26898,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15">
+    <row r="785" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A785" s="20"/>
       <c r="B785" s="21"/>
       <c r="C785" s="44"/>
@@ -26924,7 +26926,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15">
+    <row r="786" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A786" s="20"/>
       <c r="B786" s="21"/>
       <c r="C786" s="44"/>
@@ -26952,7 +26954,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15">
+    <row r="787" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A787" s="20"/>
       <c r="B787" s="21"/>
       <c r="C787" s="44"/>
@@ -26980,7 +26982,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15">
+    <row r="788" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A788" s="20"/>
       <c r="B788" s="21"/>
       <c r="C788" s="44"/>
@@ -27008,7 +27010,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15">
+    <row r="789" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A789" s="20"/>
       <c r="B789" s="21"/>
       <c r="C789" s="44"/>
@@ -27036,7 +27038,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15">
+    <row r="790" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A790" s="20"/>
       <c r="B790" s="21"/>
       <c r="C790" s="44"/>
@@ -27064,7 +27066,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15">
+    <row r="791" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A791" s="20"/>
       <c r="B791" s="21"/>
       <c r="C791" s="44"/>
@@ -27092,7 +27094,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15">
+    <row r="792" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A792" s="20"/>
       <c r="B792" s="21"/>
       <c r="C792" s="44"/>
@@ -27120,7 +27122,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15">
+    <row r="793" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A793" s="20"/>
       <c r="B793" s="21"/>
       <c r="C793" s="44"/>
@@ -27148,7 +27150,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15">
+    <row r="794" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A794" s="20"/>
       <c r="B794" s="21"/>
       <c r="C794" s="44"/>
@@ -27176,7 +27178,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15">
+    <row r="795" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A795" s="20"/>
       <c r="B795" s="21"/>
       <c r="C795" s="44"/>
@@ -27204,7 +27206,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15">
+    <row r="796" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A796" s="20"/>
       <c r="B796" s="21"/>
       <c r="C796" s="44"/>
@@ -27232,7 +27234,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15">
+    <row r="797" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A797" s="20"/>
       <c r="B797" s="21"/>
       <c r="C797" s="44"/>
@@ -27260,7 +27262,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15">
+    <row r="798" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A798" s="20"/>
       <c r="B798" s="21"/>
       <c r="C798" s="44"/>
@@ -27288,7 +27290,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15">
+    <row r="799" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A799" s="20"/>
       <c r="B799" s="21"/>
       <c r="C799" s="44"/>
@@ -27316,7 +27318,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15">
+    <row r="800" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A800" s="20"/>
       <c r="B800" s="21"/>
       <c r="C800" s="44"/>
@@ -27344,7 +27346,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15">
+    <row r="801" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A801" s="20"/>
       <c r="B801" s="21"/>
       <c r="C801" s="44"/>
@@ -27372,7 +27374,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15">
+    <row r="802" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A802" s="20"/>
       <c r="B802" s="21"/>
       <c r="C802" s="44"/>
@@ -27400,7 +27402,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15">
+    <row r="803" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A803" s="20"/>
       <c r="B803" s="21"/>
       <c r="C803" s="44"/>
@@ -27428,7 +27430,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15">
+    <row r="804" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A804" s="20"/>
       <c r="B804" s="21"/>
       <c r="C804" s="44"/>
@@ -27456,7 +27458,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15">
+    <row r="805" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A805" s="20"/>
       <c r="B805" s="21"/>
       <c r="C805" s="44"/>
@@ -27484,7 +27486,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15">
+    <row r="806" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A806" s="20"/>
       <c r="B806" s="21"/>
       <c r="C806" s="44"/>
@@ -27512,7 +27514,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15">
+    <row r="807" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A807" s="20"/>
       <c r="B807" s="21"/>
       <c r="C807" s="44"/>
@@ -27540,7 +27542,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15">
+    <row r="808" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A808" s="20"/>
       <c r="B808" s="21"/>
       <c r="C808" s="44"/>
@@ -27568,7 +27570,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15">
+    <row r="809" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A809" s="20"/>
       <c r="B809" s="21"/>
       <c r="C809" s="44"/>
@@ -27596,7 +27598,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15">
+    <row r="810" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A810" s="20"/>
       <c r="B810" s="21"/>
       <c r="C810" s="44"/>
@@ -27624,7 +27626,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15">
+    <row r="811" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A811" s="20"/>
       <c r="B811" s="21"/>
       <c r="C811" s="44"/>
@@ -27652,7 +27654,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15">
+    <row r="812" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A812" s="20"/>
       <c r="B812" s="21"/>
       <c r="C812" s="44"/>
@@ -27680,7 +27682,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15">
+    <row r="813" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A813" s="20"/>
       <c r="B813" s="21"/>
       <c r="C813" s="44"/>
@@ -27708,7 +27710,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15">
+    <row r="814" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A814" s="20"/>
       <c r="B814" s="21"/>
       <c r="C814" s="44"/>
@@ -27736,7 +27738,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15">
+    <row r="815" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A815" s="20"/>
       <c r="B815" s="21"/>
       <c r="C815" s="44"/>
@@ -27764,7 +27766,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15">
+    <row r="816" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A816" s="20"/>
       <c r="B816" s="21"/>
       <c r="C816" s="44"/>
@@ -27792,7 +27794,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15">
+    <row r="817" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A817" s="20"/>
       <c r="B817" s="21"/>
       <c r="C817" s="44"/>
@@ -27820,7 +27822,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15">
+    <row r="818" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A818" s="20"/>
       <c r="B818" s="21"/>
       <c r="C818" s="44"/>
@@ -27848,7 +27850,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15">
+    <row r="819" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A819" s="20"/>
       <c r="B819" s="21"/>
       <c r="C819" s="44"/>
@@ -27876,7 +27878,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15">
+    <row r="820" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A820" s="20"/>
       <c r="B820" s="21"/>
       <c r="C820" s="44"/>
@@ -27904,7 +27906,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15">
+    <row r="821" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A821" s="20"/>
       <c r="B821" s="21"/>
       <c r="C821" s="44"/>
@@ -27932,7 +27934,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15">
+    <row r="822" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A822" s="20"/>
       <c r="B822" s="21"/>
       <c r="C822" s="44"/>
@@ -27960,7 +27962,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15">
+    <row r="823" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A823" s="20"/>
       <c r="B823" s="21"/>
       <c r="C823" s="44"/>
@@ -27988,7 +27990,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15">
+    <row r="824" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A824" s="20"/>
       <c r="B824" s="21"/>
       <c r="C824" s="44"/>
@@ -28016,7 +28018,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15">
+    <row r="825" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A825" s="20"/>
       <c r="B825" s="21"/>
       <c r="C825" s="44"/>
@@ -28044,7 +28046,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15">
+    <row r="826" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A826" s="20"/>
       <c r="B826" s="21"/>
       <c r="C826" s="44"/>
@@ -28072,7 +28074,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15">
+    <row r="827" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A827" s="20"/>
       <c r="B827" s="21"/>
       <c r="C827" s="44"/>
@@ -28100,7 +28102,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15">
+    <row r="828" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A828" s="20"/>
       <c r="B828" s="21"/>
       <c r="C828" s="44"/>
@@ -28128,7 +28130,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15">
+    <row r="829" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A829" s="20"/>
       <c r="B829" s="21"/>
       <c r="C829" s="44"/>
@@ -28156,7 +28158,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15">
+    <row r="830" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A830" s="20"/>
       <c r="B830" s="21"/>
       <c r="C830" s="44"/>
@@ -28184,7 +28186,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15">
+    <row r="831" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A831" s="20"/>
       <c r="B831" s="21"/>
       <c r="C831" s="44"/>
@@ -28212,7 +28214,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15">
+    <row r="832" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A832" s="20"/>
       <c r="B832" s="21"/>
       <c r="C832" s="44"/>
@@ -28240,7 +28242,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15">
+    <row r="833" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A833" s="20"/>
       <c r="B833" s="21"/>
       <c r="C833" s="44"/>
@@ -28268,7 +28270,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15">
+    <row r="834" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A834" s="20"/>
       <c r="B834" s="21"/>
       <c r="C834" s="44"/>
@@ -28296,7 +28298,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15">
+    <row r="835" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A835" s="20"/>
       <c r="B835" s="21"/>
       <c r="C835" s="44"/>
@@ -28324,7 +28326,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15">
+    <row r="836" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A836" s="20"/>
       <c r="B836" s="21"/>
       <c r="C836" s="44"/>
@@ -28352,7 +28354,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15">
+    <row r="837" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A837" s="20"/>
       <c r="B837" s="21"/>
       <c r="C837" s="44"/>
@@ -28380,7 +28382,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15">
+    <row r="838" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A838" s="20"/>
       <c r="B838" s="21"/>
       <c r="C838" s="44"/>
@@ -28408,7 +28410,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15">
+    <row r="839" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A839" s="20"/>
       <c r="B839" s="21"/>
       <c r="C839" s="44"/>
@@ -28436,7 +28438,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15">
+    <row r="840" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A840" s="20"/>
       <c r="B840" s="21"/>
       <c r="C840" s="44"/>
@@ -28464,7 +28466,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15">
+    <row r="841" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A841" s="20"/>
       <c r="B841" s="21"/>
       <c r="C841" s="44"/>
@@ -28492,7 +28494,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15">
+    <row r="842" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A842" s="20"/>
       <c r="B842" s="21"/>
       <c r="C842" s="44"/>
@@ -28520,7 +28522,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15">
+    <row r="843" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A843" s="20"/>
       <c r="B843" s="21"/>
       <c r="C843" s="44"/>
@@ -28548,7 +28550,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15">
+    <row r="844" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A844" s="20"/>
       <c r="B844" s="21"/>
       <c r="C844" s="44"/>
@@ -28576,7 +28578,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15">
+    <row r="845" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A845" s="20"/>
       <c r="B845" s="21"/>
       <c r="C845" s="44"/>
@@ -28604,7 +28606,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15">
+    <row r="846" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A846" s="20"/>
       <c r="B846" s="21"/>
       <c r="C846" s="44"/>
@@ -28632,7 +28634,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15">
+    <row r="847" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A847" s="20"/>
       <c r="B847" s="21"/>
       <c r="C847" s="44"/>
@@ -28660,7 +28662,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15">
+    <row r="848" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A848" s="20"/>
       <c r="B848" s="21"/>
       <c r="C848" s="44"/>
@@ -28688,7 +28690,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15">
+    <row r="849" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A849" s="20"/>
       <c r="B849" s="21"/>
       <c r="C849" s="44"/>
@@ -28716,7 +28718,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15">
+    <row r="850" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A850" s="20"/>
       <c r="B850" s="21"/>
       <c r="C850" s="44"/>
@@ -28744,7 +28746,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15">
+    <row r="851" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A851" s="20"/>
       <c r="B851" s="21"/>
       <c r="C851" s="44"/>
@@ -28772,7 +28774,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15">
+    <row r="852" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A852" s="20"/>
       <c r="B852" s="21"/>
       <c r="C852" s="44"/>
@@ -28800,7 +28802,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15">
+    <row r="853" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A853" s="20"/>
       <c r="B853" s="21"/>
       <c r="C853" s="44"/>
@@ -28828,7 +28830,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15">
+    <row r="854" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A854" s="20"/>
       <c r="B854" s="21"/>
       <c r="C854" s="44"/>
@@ -28856,7 +28858,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15">
+    <row r="855" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A855" s="20"/>
       <c r="B855" s="21"/>
       <c r="C855" s="44"/>
@@ -28884,7 +28886,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15">
+    <row r="856" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A856" s="20"/>
       <c r="B856" s="21"/>
       <c r="C856" s="44"/>
@@ -28912,7 +28914,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15">
+    <row r="857" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A857" s="20"/>
       <c r="B857" s="21"/>
       <c r="C857" s="44"/>
@@ -28940,7 +28942,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15">
+    <row r="858" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A858" s="20"/>
       <c r="B858" s="21"/>
       <c r="C858" s="44"/>
@@ -28968,7 +28970,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15">
+    <row r="859" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A859" s="20"/>
       <c r="B859" s="21"/>
       <c r="C859" s="44"/>
@@ -28996,7 +28998,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15">
+    <row r="860" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A860" s="20"/>
       <c r="B860" s="21"/>
       <c r="C860" s="44"/>
@@ -29024,7 +29026,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15">
+    <row r="861" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A861" s="20"/>
       <c r="B861" s="21"/>
       <c r="C861" s="44"/>
@@ -29052,7 +29054,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15">
+    <row r="862" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A862" s="20"/>
       <c r="B862" s="21"/>
       <c r="C862" s="44"/>
@@ -29080,7 +29082,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15">
+    <row r="863" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A863" s="20"/>
       <c r="B863" s="21"/>
       <c r="C863" s="44"/>
@@ -29108,7 +29110,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15">
+    <row r="864" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A864" s="20"/>
       <c r="B864" s="21"/>
       <c r="C864" s="44"/>
@@ -29136,7 +29138,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15">
+    <row r="865" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A865" s="20"/>
       <c r="B865" s="21"/>
       <c r="C865" s="44"/>
@@ -29164,7 +29166,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15">
+    <row r="866" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A866" s="20"/>
       <c r="B866" s="21"/>
       <c r="C866" s="44"/>
@@ -29192,7 +29194,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15">
+    <row r="867" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A867" s="20"/>
       <c r="B867" s="21"/>
       <c r="C867" s="44"/>
@@ -29220,7 +29222,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15">
+    <row r="868" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A868" s="20"/>
       <c r="B868" s="21"/>
       <c r="C868" s="44"/>
@@ -29248,7 +29250,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15">
+    <row r="869" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A869" s="20"/>
       <c r="B869" s="21"/>
       <c r="C869" s="44"/>
@@ -29276,7 +29278,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15">
+    <row r="870" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A870" s="20"/>
       <c r="B870" s="21"/>
       <c r="C870" s="44"/>
@@ -29304,7 +29306,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15">
+    <row r="871" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A871" s="20"/>
       <c r="B871" s="21"/>
       <c r="C871" s="44"/>
@@ -29332,7 +29334,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15">
+    <row r="872" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A872" s="20"/>
       <c r="B872" s="21"/>
       <c r="C872" s="44"/>
@@ -29360,7 +29362,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15">
+    <row r="873" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A873" s="20"/>
       <c r="B873" s="21"/>
       <c r="C873" s="44"/>
@@ -29388,7 +29390,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15">
+    <row r="874" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A874" s="20"/>
       <c r="B874" s="21"/>
       <c r="C874" s="44"/>
@@ -29416,7 +29418,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15">
+    <row r="875" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A875" s="20"/>
       <c r="B875" s="21"/>
       <c r="C875" s="44"/>
@@ -29444,7 +29446,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15">
+    <row r="876" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A876" s="20"/>
       <c r="B876" s="21"/>
       <c r="C876" s="44"/>
@@ -29472,7 +29474,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15">
+    <row r="877" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A877" s="20"/>
       <c r="B877" s="21"/>
       <c r="C877" s="44"/>
@@ -29500,7 +29502,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15">
+    <row r="878" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A878" s="20"/>
       <c r="B878" s="21"/>
       <c r="C878" s="44"/>
@@ -29528,7 +29530,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15">
+    <row r="879" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A879" s="20"/>
       <c r="B879" s="21"/>
       <c r="C879" s="44"/>
@@ -29556,7 +29558,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15">
+    <row r="880" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A880" s="20"/>
       <c r="B880" s="21"/>
       <c r="C880" s="44"/>
@@ -29584,7 +29586,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15">
+    <row r="881" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A881" s="20"/>
       <c r="B881" s="21"/>
       <c r="C881" s="44"/>
@@ -29612,7 +29614,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15">
+    <row r="882" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A882" s="20"/>
       <c r="B882" s="21"/>
       <c r="C882" s="44"/>
@@ -29640,7 +29642,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15">
+    <row r="883" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A883" s="20"/>
       <c r="B883" s="21"/>
       <c r="C883" s="44"/>
@@ -29668,7 +29670,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15">
+    <row r="884" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A884" s="20"/>
       <c r="B884" s="21"/>
       <c r="C884" s="44"/>
@@ -29696,7 +29698,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15">
+    <row r="885" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A885" s="20"/>
       <c r="B885" s="21"/>
       <c r="C885" s="44"/>
@@ -29724,7 +29726,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15">
+    <row r="886" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A886" s="20"/>
       <c r="B886" s="21"/>
       <c r="C886" s="44"/>
@@ -29752,7 +29754,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15">
+    <row r="887" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A887" s="20"/>
       <c r="B887" s="21"/>
       <c r="C887" s="44"/>
@@ -29780,7 +29782,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15">
+    <row r="888" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A888" s="20"/>
       <c r="B888" s="21"/>
       <c r="C888" s="44"/>
@@ -29808,7 +29810,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15">
+    <row r="889" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A889" s="20"/>
       <c r="B889" s="21"/>
       <c r="C889" s="44"/>
@@ -29836,7 +29838,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15">
+    <row r="890" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A890" s="20"/>
       <c r="B890" s="21"/>
       <c r="C890" s="44"/>
@@ -29864,7 +29866,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15">
+    <row r="891" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A891" s="20"/>
       <c r="B891" s="21"/>
       <c r="C891" s="44"/>
@@ -29892,7 +29894,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15">
+    <row r="892" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A892" s="20"/>
       <c r="B892" s="21"/>
       <c r="C892" s="44"/>
@@ -29920,7 +29922,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15">
+    <row r="893" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A893" s="20"/>
       <c r="B893" s="21"/>
       <c r="C893" s="44"/>
@@ -29948,7 +29950,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15">
+    <row r="894" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A894" s="20"/>
       <c r="B894" s="21"/>
       <c r="C894" s="44"/>
@@ -29976,7 +29978,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15">
+    <row r="895" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A895" s="20"/>
       <c r="B895" s="21"/>
       <c r="C895" s="44"/>
@@ -30004,7 +30006,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15">
+    <row r="896" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A896" s="20"/>
       <c r="B896" s="21"/>
       <c r="C896" s="44"/>
@@ -30032,7 +30034,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15">
+    <row r="897" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A897" s="20"/>
       <c r="B897" s="21"/>
       <c r="C897" s="44"/>
@@ -30060,7 +30062,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15">
+    <row r="898" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A898" s="20"/>
       <c r="B898" s="21"/>
       <c r="C898" s="44"/>
@@ -30088,7 +30090,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15">
+    <row r="899" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A899" s="20"/>
       <c r="B899" s="21"/>
       <c r="C899" s="44"/>
@@ -30116,7 +30118,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15">
+    <row r="900" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A900" s="20"/>
       <c r="B900" s="21"/>
       <c r="C900" s="44"/>
@@ -30144,7 +30146,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15">
+    <row r="901" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A901" s="20"/>
       <c r="B901" s="21"/>
       <c r="C901" s="44"/>
@@ -30172,7 +30174,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15">
+    <row r="902" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A902" s="20"/>
       <c r="B902" s="21"/>
       <c r="C902" s="44"/>
@@ -30200,7 +30202,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15">
+    <row r="903" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A903" s="20"/>
       <c r="B903" s="21"/>
       <c r="C903" s="44"/>
@@ -30228,7 +30230,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15">
+    <row r="904" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A904" s="20"/>
       <c r="B904" s="21"/>
       <c r="C904" s="44"/>
@@ -30256,7 +30258,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15">
+    <row r="905" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A905" s="20"/>
       <c r="B905" s="21"/>
       <c r="C905" s="44"/>
@@ -30284,7 +30286,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15">
+    <row r="906" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A906" s="20"/>
       <c r="B906" s="21"/>
       <c r="C906" s="44"/>
@@ -30312,7 +30314,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15">
+    <row r="907" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A907" s="20"/>
       <c r="B907" s="21"/>
       <c r="C907" s="44"/>
@@ -30340,7 +30342,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15">
+    <row r="908" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A908" s="20"/>
       <c r="B908" s="21"/>
       <c r="C908" s="44"/>
@@ -30368,7 +30370,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15">
+    <row r="909" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A909" s="20"/>
       <c r="B909" s="21"/>
       <c r="C909" s="44"/>
@@ -30396,7 +30398,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15">
+    <row r="910" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A910" s="20"/>
       <c r="B910" s="21"/>
       <c r="C910" s="44"/>
@@ -30424,7 +30426,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15">
+    <row r="911" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A911" s="20"/>
       <c r="B911" s="21"/>
       <c r="C911" s="44"/>
@@ -30452,7 +30454,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15">
+    <row r="912" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A912" s="20"/>
       <c r="B912" s="21"/>
       <c r="C912" s="44"/>
@@ -30480,7 +30482,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15">
+    <row r="913" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A913" s="20"/>
       <c r="B913" s="21"/>
       <c r="C913" s="44"/>
@@ -30508,7 +30510,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15">
+    <row r="914" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A914" s="20"/>
       <c r="B914" s="21"/>
       <c r="C914" s="44"/>
@@ -30536,7 +30538,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15">
+    <row r="915" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A915" s="20"/>
       <c r="B915" s="21"/>
       <c r="C915" s="44"/>
@@ -30564,7 +30566,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15">
+    <row r="916" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A916" s="20"/>
       <c r="B916" s="21"/>
       <c r="C916" s="44"/>
@@ -30592,7 +30594,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15">
+    <row r="917" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A917" s="20"/>
       <c r="B917" s="21"/>
       <c r="C917" s="44"/>
@@ -30620,7 +30622,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15">
+    <row r="918" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A918" s="20"/>
       <c r="B918" s="21"/>
       <c r="C918" s="44"/>
@@ -30648,7 +30650,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15">
+    <row r="919" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A919" s="20"/>
       <c r="B919" s="21"/>
       <c r="C919" s="44"/>
@@ -30678,21 +30680,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DA06FCC6-1FC0-40D5-A12B-8F80DA3B66F6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{672E2E68-7871-4DB1-BECA-749F40F82542}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{8DA27C2C-12EE-46E2-A7C7-3E86A35D6FAA}"/>
+      <autoFilter ref="A11:C37" xr:uid="{FC3B41DA-1A0E-4DD2-BC7D-FCC558686855}"/>
+    </customSheetView>
+    <customSheetView guid="{C4A38210-5016-4933-A97E-CBE4FA1DF2DB}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{4FCD0289-C241-4927-8F01-D267BE2B5C4C}"/>
     </customSheetView>
     <customSheetView guid="{927507D1-940B-452C-9A74-0191C507A367}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{0C7D36FA-DE0C-4F5E-BDBB-96F3918CF0A2}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C95BE357-DF2B-435A-82AF-799190C62A9C}"/>
     </customSheetView>
-    <customSheetView guid="{C4A38210-5016-4933-A97E-CBE4FA1DF2DB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DA06FCC6-1FC0-40D5-A12B-8F80DA3B66F6}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D21F424C-150E-4A3F-96DF-4DEA5950FC08}"/>
-    </customSheetView>
-    <customSheetView guid="{672E2E68-7871-4DB1-BECA-749F40F82542}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{D7F3CB7E-B93B-4195-A280-BD2194176ECA}"/>
+      <autoFilter ref="A293:C332" xr:uid="{F5007D7D-5BC0-4BF0-A309-C3533582B2B0}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31094,43 +31096,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="63.44140625" customWidth="1"/>
     <col min="3" max="3" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
     </row>
-    <row r="2" spans="1:3" ht="13.2">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -31139,7 +31141,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -31148,7 +31150,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -31157,12 +31159,12 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
@@ -31173,7 +31175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>61</v>
       </c>
@@ -31184,7 +31186,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>126</v>
       </c>
@@ -31192,7 +31194,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -31200,7 +31202,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>126</v>
       </c>
@@ -31208,7 +31210,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>126</v>
       </c>
@@ -31216,7 +31218,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>126</v>
       </c>
@@ -31224,7 +31226,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>126</v>
       </c>
@@ -31232,7 +31234,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6">
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>126</v>
       </c>
@@ -31240,7 +31242,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>169</v>
       </c>
@@ -31248,7 +31250,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>169</v>
       </c>
@@ -31256,15 +31258,15 @@
         <v>665</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47"/>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>203</v>
       </c>
@@ -31272,7 +31274,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>203</v>
       </c>
@@ -31280,7 +31282,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6">
+    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>203</v>
       </c>
@@ -31288,7 +31290,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6">
+    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>203</v>
       </c>
@@ -31296,7 +31298,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>203</v>
       </c>
@@ -31304,15 +31306,15 @@
         <v>670</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6">
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="47"/>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:2" ht="15.6">
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="47"/>
       <c r="B34" s="16"/>
     </row>
-    <row r="35" spans="1:2" ht="15.6">
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>252</v>
       </c>
@@ -31320,7 +31322,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6">
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>252</v>
       </c>
@@ -31328,7 +31330,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>252</v>
       </c>
@@ -31336,7 +31338,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6">
+    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>252</v>
       </c>
@@ -31344,7 +31346,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6">
+    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>300</v>
       </c>
@@ -31352,7 +31354,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>300</v>
       </c>
@@ -31360,11 +31362,11 @@
         <v>676</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6">
+    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="16"/>
     </row>
-    <row r="45" spans="1:2" ht="15.6">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>333</v>
       </c>
@@ -31372,7 +31374,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6">
+    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>333</v>
       </c>
@@ -31380,15 +31382,15 @@
         <v>678</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6">
+    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="16"/>
     </row>
-    <row r="48" spans="1:2" ht="15.6">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="16"/>
     </row>
-    <row r="49" spans="1:2" ht="15.6">
+    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>393</v>
       </c>
@@ -31396,15 +31398,15 @@
         <v>679</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6">
+    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="16"/>
     </row>
-    <row r="51" spans="1:2" ht="15.6">
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
       <c r="B51" s="16"/>
     </row>
-    <row r="52" spans="1:2" ht="15.6">
+    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>427</v>
       </c>
@@ -31412,7 +31414,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6">
+    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>427</v>
       </c>
@@ -31420,7 +31422,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6">
+    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>427</v>
       </c>
@@ -31428,7 +31430,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6">
+    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>427</v>
       </c>
@@ -31436,7 +31438,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6">
+    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>427</v>
       </c>
@@ -31444,15 +31446,15 @@
         <v>684</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6">
+    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="16"/>
     </row>
-    <row r="58" spans="1:2" ht="15.6">
+    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="16"/>
     </row>
-    <row r="59" spans="1:2" ht="15.6">
+    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>472</v>
       </c>
@@ -31460,7 +31462,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6">
+    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>472</v>
       </c>
@@ -31468,7 +31470,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6">
+    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>472</v>
       </c>
@@ -31476,15 +31478,15 @@
         <v>330</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6">
+    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="1:2" ht="15.6">
+    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="1:2" ht="15.6">
+    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>549</v>
       </c>
@@ -31492,7 +31494,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>549</v>
       </c>
@@ -31500,7 +31502,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6">
+    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>549</v>
       </c>
@@ -31508,7 +31510,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6">
+    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>549</v>
       </c>
@@ -31516,7 +31518,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6">
+    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>549</v>
       </c>
@@ -31524,7 +31526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6">
+    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>549</v>
       </c>
@@ -31532,7 +31534,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6">
+    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>549</v>
       </c>
@@ -31540,7 +31542,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6">
+    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>549</v>
       </c>
